--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="2311">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -6586,6 +6586,357 @@
   </si>
   <si>
     <t>2022-Jun-18</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2022H2</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W26</t>
+  </si>
+  <si>
+    <t>2022W27</t>
+  </si>
+  <si>
+    <t>2022W28</t>
+  </si>
+  <si>
+    <t>2022W29</t>
+  </si>
+  <si>
+    <t>2022W30</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jun-14</t>
+  </si>
+  <si>
+    <t>2022-Jun-15</t>
+  </si>
+  <si>
+    <t>2022-Jun-16</t>
+  </si>
+  <si>
+    <t>2022-Jun-17</t>
+  </si>
+  <si>
+    <t>2022-Jun-18</t>
+  </si>
+  <si>
+    <t>2022-Jun-19</t>
+  </si>
+  <si>
+    <t>2022-Jun-20</t>
+  </si>
+  <si>
+    <t>2022-Jun-21</t>
+  </si>
+  <si>
+    <t>2022-Jun-22</t>
+  </si>
+  <si>
+    <t>2022-Jun-23</t>
+  </si>
+  <si>
+    <t>2022-Jun-24</t>
+  </si>
+  <si>
+    <t>2022-Jun-25</t>
+  </si>
+  <si>
+    <t>2022-Jun-26</t>
+  </si>
+  <si>
+    <t>2022-Jun-27</t>
+  </si>
+  <si>
+    <t>2022-Jun-28</t>
   </si>
   <si>
     <t>daily1</t>
@@ -6646,13 +6997,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
   </cols>
@@ -6660,302 +7011,242 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2189</v>
+        <v>2306</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2190</v>
+        <v>2307</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2191</v>
+        <v>2308</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2192</v>
+        <v>2309</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2193</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B2" s="0"/>
+        <v>2291</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.0077822300572673031</v>
+      </c>
       <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0">
-        <v>0.76843403261416809</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.15987275885464014</v>
-      </c>
+      <c r="D2" s="0">
+        <v>0.51573554602372007</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2174</v>
+        <v>2292</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.53331264270668033</v>
-      </c>
+      <c r="D3" s="0">
+        <v>0.39351074015459975</v>
+      </c>
+      <c r="E3" s="0"/>
       <c r="F3" s="0">
-        <v>0.73147071548382048</v>
+        <v>0.099138056719488277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2175</v>
+        <v>2293</v>
       </c>
       <c r="B4" s="0"/>
-      <c r="C4" s="0">
-        <v>0.42742795784650822</v>
-      </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="0">
-        <v>0.76649484443229743</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.068380216419248518</v>
-      </c>
+        <v>0.99519551410561513</v>
+      </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="0">
-        <v>0.053694117190452917</v>
+        <v>0.71515120526787057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.16851242728754467</v>
-      </c>
+        <v>2294</v>
+      </c>
+      <c r="B5" s="0"/>
       <c r="C5" s="0">
-        <v>0.17584603336588001</v>
+        <v>0.12050315499274389</v>
       </c>
       <c r="D5" s="0">
-        <v>0.92016610016361966</v>
+        <v>0.43959997944439244</v>
       </c>
       <c r="E5" s="0">
-        <v>0.19958423217358856</v>
+        <v>0.08764372229528572</v>
       </c>
       <c r="F5" s="0">
-        <v>0.71438952708378545</v>
+        <v>0.72163840661013368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.96401593770650607</v>
-      </c>
+        <v>2295</v>
+      </c>
+      <c r="B6" s="0"/>
       <c r="C6" s="0">
-        <v>0.29489834699153228</v>
+        <v>0.71925339929635057</v>
       </c>
       <c r="D6" s="0">
-        <v>0.21030633328711112</v>
+        <v>0.15143964703215562</v>
       </c>
       <c r="E6" s="0">
-        <v>0.012017630623390119</v>
+        <v>0.47042570848164778</v>
       </c>
       <c r="F6" s="0">
-        <v>0.12173564229908074</v>
+        <v>0.78247095275140666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.34826595075291689</v>
-      </c>
+        <v>2296</v>
+      </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>0.058738312886922439</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.60811418134968775</v>
-      </c>
+        <v>0.16185410374930753</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0">
-        <v>0.96657191256692576</v>
+        <v>0.29282961008352115</v>
       </c>
       <c r="F7" s="0">
-        <v>0.98404473798999714</v>
+        <v>0.94204510093662741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.59848756193256047</v>
-      </c>
+        <v>2297</v>
+      </c>
+      <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>0.060172881038417336</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.46572520443514132</v>
-      </c>
+        <v>0.12016014995296609</v>
+      </c>
+      <c r="D8" s="0"/>
       <c r="E8" s="0">
-        <v>0.8322006902956316</v>
+        <v>0.40685058202552915</v>
       </c>
       <c r="F8" s="0">
-        <v>0.59309819626620297</v>
+        <v>0.047568476560669093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.73139170545283771</v>
-      </c>
+        <v>2298</v>
+      </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>0.026659892354006898</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.61669989433678918</v>
-      </c>
+        <v>0.68115210610364274</v>
+      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0">
-        <v>0.44530906024876671</v>
+        <v>0.43023724754350257</v>
       </c>
       <c r="F9" s="0">
-        <v>0.26954320536482101</v>
+        <v>0.80035038794762914</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.87081636325440459</v>
-      </c>
+        <v>2299</v>
+      </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>0.5504674053207107</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.20309212375425523</v>
-      </c>
+        <v>0.14482665599498812</v>
+      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0">
-        <v>0.99049546571294866</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.43200359092497242</v>
-      </c>
+        <v>0.87126214021995585</v>
+      </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.33339943713534992</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>0.56305071432936582</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.67760052404773352</v>
-      </c>
+        <v>0.057827752177776914</v>
+      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0">
-        <v>0.79428438365359966</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.93051234234293878</v>
-      </c>
+        <v>0.70725013721772845</v>
+      </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2183</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.46304271259626373</v>
-      </c>
+        <v>2301</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.30459561376108824</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.017315558322003599</v>
-      </c>
+        <v>0.1349420028699555</v>
+      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0">
-        <v>0.48861116806819116</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.50788530854029601</v>
-      </c>
+        <v>0.014297331274655156</v>
+      </c>
+      <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2184</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.16688671173257363</v>
-      </c>
+        <v>2302</v>
+      </c>
+      <c r="B13" s="0"/>
       <c r="C13" s="0">
-        <v>0.75451078470229649</v>
+        <v>0.014780438504280236</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0">
-        <v>0.13058925420953782</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.064098005280811665</v>
-      </c>
+        <v>0.024583708446298869</v>
+      </c>
+      <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.46638929669314333</v>
-      </c>
+        <v>2303</v>
+      </c>
+      <c r="B14" s="0"/>
       <c r="C14" s="0">
-        <v>0.6711031875801553</v>
+        <v>0.18911715128008877</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.21224251926836823</v>
+        <v>0.23699424717020168</v>
       </c>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.45637045525521824</v>
-      </c>
+        <v>2304</v>
+      </c>
+      <c r="B15" s="0"/>
       <c r="C15" s="0">
-        <v>0.93983825433771329</v>
+        <v>0.070862118287904563</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.83111015472385286</v>
+        <v>0.59826543626877549</v>
       </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.12782229928393207</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0.48515469118141497</v>
-      </c>
+        <v>2305</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="0">
+        <v>0.92619815329060862</v>
+      </c>
       <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>2188</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0">
-        <v>0.51808784097339644</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -6963,11 +7254,581 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.44573095817754427</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.93884503662500751</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.25968631258850594</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.74011774040288791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0">
+        <v>0.94263240618296684</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.87279585035373619</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>0.062876255893198341</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0">
+        <v>0.64157035754824832</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.35552497550909723</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>0.30693891165944398</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.91863282773636101</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.82906336692974458</v>
+      </c>
+      <c r="F6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>0.94976449537492202</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.28348036649201613</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>0.010364379088872222</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.058625575108405492</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>0.16782770842568406</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.82099454693588236</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>0.75527244805232374</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.17952223505337706</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.83382173227578615</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.034931271767973393</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0">
+        <v>0.6058604363839013</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.77132671386163798</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.51791716836921375</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.54052611933844585</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0">
+        <v>0.94285760327738177</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.33153995586090523</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0">
+        <v>0.74120639554993384</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.57821660621222404</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0">
+        <v>0.70107886700560218</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.85450742181844463</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0">
+        <v>0.74471814902570488</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.64237508408151955</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0">
+        <v>0.87382577362175251</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.42010353240692189</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0">
+        <v>0.54591288619566236</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0">
+        <v>0.18229772836487701</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2236</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.95912755887763146</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.15599623700921006</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0">
+        <v>0.92640715709855381</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.92893566527503146</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.38108801203644505</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.0068242791270317626</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0">
+        <v>0.74912072944910235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.42457418676747516</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.13617061162581501</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0">
+        <v>0.28873744940873736</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.147735486618356</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.22308394507279783</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.096626623043377213</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0">
+        <v>0.86318026492444122</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.002887745095612293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.13639509258625593</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.30516164157148173</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>0.65622849511506198</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.12701389361767523</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.26017565411199783</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.82388364986470308</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0">
+        <v>0.28469363290897831</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.91692135212511772</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.54446538298976221</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.62725286603300134</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0">
+        <v>0.64456622473528868</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.67212170725329956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.08220839201942487</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.20593276415629758</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0">
+        <v>0.2635811785722646</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.11378980745106415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.59812731332654612</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.98018545803758383</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0">
+        <v>0.1747786642814817</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.9602274928174962</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.029186178399368323</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.43777428013328734</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.45490889768790432</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.83519577423989422</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.33249868418860995</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.9436728315558397</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.30310182000969277</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
@@ -6977,188 +7838,371 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2087</v>
+        <v>2248</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2088</v>
+        <v>2249</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2089</v>
+        <v>2250</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2090</v>
+        <v>2251</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2091</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2069</v>
+        <v>2238</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.36131340195220318</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.47000049054799409</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.80376498865828572</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.83048091668020729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.058779768820967915</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0">
+        <v>0.87705814105982538</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.92309420460021674</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.070176686733150917</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.33001170117311762</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0">
+        <v>0.66023917747718452</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.86672384014601644</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.28103027716091855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.2645204776577964</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.66254037311281888</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.27796483841250075</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.49965027253960703</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.55504483760040235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.24591766636495149</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.95362463049478241</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.65716821603671405</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.58448304484870406</v>
+      </c>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.94767635939633654</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.094128457055765891</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.64541495016219219</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.92475700145655715</v>
+      </c>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.032441994505736038</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.68531562192881768</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.89722374482655787</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.16611689760202419</v>
+      </c>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>0.41244048216533913</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.88233656192566179</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.11178872270825668</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2253</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0">
-        <v>0.11218486575755959</v>
+        <v>0.20938654847903992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2070</v>
+        <v>2254</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="0">
-        <v>0.34822078059283512</v>
-      </c>
-      <c r="E3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.7414381008537807</v>
+      </c>
       <c r="F3" s="0">
-        <v>0.050602158178362333</v>
+        <v>0.21418271638404951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.71515120526787057</v>
-      </c>
+        <v>2255</v>
+      </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0">
-        <v>0.53714959665676465</v>
+        <v>0.64067794341403839</v>
       </c>
       <c r="E4" s="0">
-        <v>0.73491884374370453</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.055210249247977683</v>
-      </c>
+        <v>0.066987430750163113</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2072</v>
+        <v>2256</v>
       </c>
       <c r="B5" s="0">
-        <v>0.72163840661013368</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.047568476560669093</v>
-      </c>
+        <v>0.25842844529664455</v>
+      </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="0">
-        <v>0.12431427262225636</v>
+        <v>0.072019326247714233</v>
       </c>
       <c r="E5" s="0">
-        <v>0.29990491896718463</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.026219596769218589</v>
-      </c>
+        <v>0.75716595545507981</v>
+      </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2073</v>
-      </c>
-      <c r="B6" s="0"/>
+        <v>2257</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.41674615988017316</v>
+      </c>
       <c r="C6" s="0">
-        <v>0.80035038794762914</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.19273830967060035</v>
-      </c>
+        <v>0.30719808151669192</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
-        <v>0.80713614145107704</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.95543558180010968</v>
-      </c>
+        <v>0.24071303354119533</v>
+      </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2074</v>
-      </c>
-      <c r="B7" s="0"/>
+        <v>2258</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.38205553895575395</v>
+      </c>
       <c r="C7" s="0">
-        <v>0.4667884053740543</v>
+        <v>0.16976392194186085</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0">
-        <v>0.91366451716835173</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.5252138034979934</v>
-      </c>
+        <v>0.23090983601830073</v>
+      </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2075</v>
-      </c>
-      <c r="B8" s="0"/>
+        <v>2259</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.096334132994130295</v>
+      </c>
       <c r="C8" s="0">
-        <v>0.2791398496777826</v>
+        <v>0.048765393037974891</v>
       </c>
       <c r="D8" s="0"/>
-      <c r="E8" s="0">
-        <v>0.76510804129972365</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.7562540151538264</v>
-      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2076</v>
-      </c>
-      <c r="B9" s="0"/>
+        <v>2260</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.13128421939369728</v>
+      </c>
       <c r="C9" s="0">
-        <v>0.044721082112832655</v>
+        <v>0.22581713100149614</v>
       </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0.33421169612653467</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.58981831814717378</v>
-      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="B10" s="0"/>
+        <v>2261</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.60989827041754752</v>
+      </c>
       <c r="C10" s="0">
-        <v>0.78755096856701456</v>
+        <v>0.3669710849162775</v>
       </c>
       <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0.71933793478030061</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.73890563395986386</v>
-      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2078</v>
-      </c>
-      <c r="B11" s="0"/>
+        <v>2262</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.65619373187934471</v>
+      </c>
       <c r="C11" s="0">
-        <v>0.8991238614239605</v>
+        <v>0.5678463849237092</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0.31941699936389578</v>
-      </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2079</v>
+        <v>2263</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.77568389967743767</v>
+        <v>0.56971540694443779</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -7166,100 +8210,28 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2080</v>
+        <v>2264</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
-        <v>0.83745023558209031</v>
+        <v>0.77877647772355263</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>2081</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0">
-        <v>0.34442070588032947</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>2082</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0">
-        <v>0.19119260379567715</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>2083</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0">
-        <v>0.37843892386006062</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0">
-        <v>0.25633384155015781</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0">
-        <v>0.021463239809257684</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>2086</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0">
-        <v>0.29327878478050395</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="9" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
@@ -7268,1126 +8240,253 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2108</v>
+        <v>2286</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2109</v>
+        <v>2287</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2110</v>
+        <v>2288</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2111</v>
+        <v>2289</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2112</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2092</v>
+        <v>2270</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="0">
-        <v>0.58608970627487422</v>
-      </c>
+      <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0">
-        <v>0.27762463623547917</v>
+        <v>0.76298681622354925</v>
       </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2093</v>
+        <v>2271</v>
       </c>
       <c r="B3" s="0"/>
-      <c r="C3" s="0">
-        <v>0.3156215649783144</v>
-      </c>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0">
-        <v>0.95310353858198082</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.4351317728580324</v>
-      </c>
+        <v>0.37938710268339659</v>
+      </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2094</v>
+        <v>2272</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
-        <v>0.14735844750440763</v>
-      </c>
-      <c r="D4" s="0"/>
+        <v>0.30802942665461874</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.35591431419377251</v>
+      </c>
       <c r="E4" s="0">
-        <v>0.81493251079314999</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.6959977884833809</v>
-      </c>
+        <v>0.68595627566382344</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2095</v>
+        <v>2273</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11483527820884376</v>
+        <v>0.097101989426797264</v>
       </c>
       <c r="C5" s="0">
-        <v>0.99152927537781999</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.98916072083021911</v>
-      </c>
+        <v>0.35730070503580402</v>
+      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>0.34959880462148651</v>
+        <v>0.69887267321937574</v>
       </c>
       <c r="F5" s="0">
-        <v>0.016475495513970539</v>
+        <v>0.87663686032871269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2096</v>
+        <v>2274</v>
       </c>
       <c r="B6" s="0">
-        <v>0.81227238217822373</v>
+        <v>0.78282152667052363</v>
       </c>
       <c r="C6" s="0">
-        <v>0.10749324381719449</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.54345603109359486</v>
-      </c>
+        <v>0.21669793236700852</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
-        <v>0.021606044763803456</v>
+        <v>0.59039823504081612</v>
       </c>
       <c r="F6" s="0">
-        <v>0.15254009550312431</v>
+        <v>0.087474067544041301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2097</v>
+        <v>2275</v>
       </c>
       <c r="B7" s="0">
-        <v>0.66682916003958947</v>
+        <v>0.66752094460457012</v>
       </c>
       <c r="C7" s="0">
-        <v>0.33425683416865881</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.56331651680031214</v>
-      </c>
+        <v>0.67728000428304547</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0">
-        <v>0.34101304309247404</v>
+        <v>0.96205553547291267</v>
       </c>
       <c r="F7" s="0">
-        <v>0.89953885227835939</v>
+        <v>0.66791362490370298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2098</v>
+        <v>2276</v>
       </c>
       <c r="B8" s="0">
-        <v>0.38178308391401139</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.037958960264004249</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.18789861860945023</v>
-      </c>
+        <v>0.61267254852844133</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
       <c r="E8" s="0">
-        <v>0.38439781192429778</v>
+        <v>0.78134565317204663</v>
       </c>
       <c r="F8" s="0">
-        <v>0.046376301382324958</v>
+        <v>0.50242197252935406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2099</v>
+        <v>2277</v>
       </c>
       <c r="B9" s="0">
-        <v>0.71880896434489672</v>
+        <v>0.34379242128970755</v>
       </c>
       <c r="C9" s="0"/>
-      <c r="D9" s="0">
-        <v>0.21549562874861017</v>
-      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0">
-        <v>0.093289625423441658</v>
+        <v>0.53842747906190114</v>
       </c>
       <c r="F9" s="0">
-        <v>0.029326989589634866</v>
+        <v>0.33556204066608608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.4186278943032149</v>
-      </c>
+        <v>2278</v>
+      </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="0">
-        <v>0.48530689536426086</v>
-      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0">
-        <v>0.96925277670991261</v>
+        <v>0.094138251016693042</v>
       </c>
       <c r="F10" s="0">
-        <v>0.57444449129593123</v>
+        <v>0.58856146942586784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.055932709400925651</v>
-      </c>
+        <v>2279</v>
+      </c>
+      <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0">
-        <v>0.19004495717318426</v>
+        <v>0.88600868511099107</v>
       </c>
       <c r="F11" s="0">
-        <v>0.34040416565847065</v>
+        <v>0.35193258697290986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2102</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.58499966058208708</v>
-      </c>
+        <v>2280</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0">
-        <v>0.16462046393355734</v>
+        <v>0.25749513344026631</v>
       </c>
       <c r="F12" s="0">
-        <v>0.21930076724554903</v>
+        <v>0.20671765344878612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2103</v>
+        <v>2281</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0">
-        <v>0.50703144302523995</v>
+        <v>0.46350686587619627</v>
       </c>
       <c r="F13" s="0">
-        <v>0.90399105437501248</v>
+        <v>0.26215454629640444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2104</v>
+        <v>2282</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.50823827321587201</v>
+        <v>0.33079827009126006</v>
       </c>
       <c r="F14" s="0">
-        <v>0.68308784152280244</v>
+        <v>0.098649302905720382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2105</v>
+        <v>2283</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.051478151255250792</v>
+        <v>0.75677338768660118</v>
       </c>
       <c r="F15" s="0">
-        <v>0.37164814743304142</v>
+        <v>0.15006318952043762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2106</v>
+        <v>2284</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0.36701170083706347</v>
-      </c>
+      <c r="E16" s="0"/>
       <c r="F16" s="0">
-        <v>0.40111783649282151</v>
+        <v>0.32101934413490274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2107</v>
+        <v>2285</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0">
-        <v>0.20497026954662856</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0">
-        <v>0.6211916572956554</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.9212430556843435</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.28034175327496624</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.78164886226908215</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.19776263460429822</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0">
-        <v>0.56945842585921691</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.24191578801164881</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.40838691074704259</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.47114623027645808</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.39164136888736634</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.021099784878858219</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.58359630226931258</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.36260457278208758</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.049913841549350968</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.55882704570525421</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.51227355259541563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.20185569047365803</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.16190139290392924</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.49593151770524879</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.73224561414050893</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.40755214523805261</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.12706776837359413</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.89352548313845637</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.26972119441695996</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.61162174465711194</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.21983707369645711</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.68766932132811998</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.44047636665892209</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0.5812296644365863</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.23046066804753773</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.91073901117516431</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0.070603927251852938</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.43854978346245066</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.75094006986836437</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0.37424631146035892</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.91989383086445531</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.82290890433612329</v>
-      </c>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0.033589622319684431</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.31903756749756962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.22512085244804625</v>
-      </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0">
-        <v>0.40614308966848511</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.28433453692604371</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.38674630444919555</v>
-      </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0.65795811226944012</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.36377900786418904</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.41868845204526273</v>
-      </c>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0.57524054482498299</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.49931754309815424</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.93578566229563165</v>
-      </c>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0.97595623811369492</v>
-      </c>
-      <c r="F16" s="0"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0">
-        <v>0.86108835492828117</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0">
-        <v>0.55294182569126094</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0">
-        <v>0.018529867777949627</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0">
-        <v>0.26435593390915579</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.50672964506198381</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0">
-        <v>0.50782148054994314</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.27999697494331011</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.77554726014159092</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.076509098352566363</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.022263936056014844</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.71364513318508438</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.60305106004404496</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.63792074917178931</v>
-      </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.30112141372273438</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.69774797393671451</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.8887807324532051</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.72505975506397302</v>
-      </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.29806223614509431</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.89345559594186275</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.64323410694003358</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.89464761238625534</v>
-      </c>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.8259279764729599</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.70118497053669082</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.78606335350546541</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.76798700454813207</v>
-      </c>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0">
-        <v>0.93729038054916869</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.49114124207171084</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.20684683846288932</v>
-      </c>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0">
-        <v>0.010892773559385227</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.40346040558934093</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.043304157540228871</v>
-      </c>
-      <c r="F11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>0.81974040377659896</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.87744009778382537</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0.15356355688782852</v>
-      </c>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.03426765415665689</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.70818292686664996</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.71831356412059066</v>
-      </c>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0">
-        <v>0.5161603209752671</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.82649160603229521</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.12864350589108131</v>
-      </c>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>0.01067041625840337</v>
-      </c>
-      <c r="E15" s="0">
-        <v>0.22078892365227443</v>
-      </c>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0">
-        <v>0.095557142289371066</v>
-      </c>
-      <c r="E16" s="0">
-        <v>0.45355944148931826</v>
-      </c>
-      <c r="F16" s="0"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>2171</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.3345672603183244</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.30505402116510638</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.32838321806092341</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.83840260875617612</v>
-      </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.81887855276196864</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.113096676567634</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0">
-        <v>0.62952405285110113</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.53555239145236888</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.98204894537420206</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.77191447603084684</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.079191620925958772</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.86549064981276014</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.43410128115936486</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.96897000839547764</v>
-      </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0">
-        <v>0.19290198942369707</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.21628959168107587</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.024433705129954797</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.5766223352690143</v>
-      </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0">
-        <v>0.7754051351980763</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.064899084905640336</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.50435978076273369</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.23348299110281845</v>
-      </c>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0">
-        <v>0.35339143728706146</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.67800053444826147</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.87648395531354018</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>2160</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.29209845183887373</v>
-      </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0">
-        <v>0.8389477848347745</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.53512019023623425</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.90824881828487058</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.67376433187999041</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0">
-        <v>0.13388725747564367</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.51734923363287344</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.28520348433266252</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.57373870177417852</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0">
-        <v>0.69814794058502461</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.25571866845760649</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.13270366197625805</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.19970224912972201</v>
-      </c>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0">
-        <v>0.19034462803075591</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0.852827587736811</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.00013254354544556257</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.95819839711471966</v>
-      </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>0.39680689510116474</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.82320106107492819</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.31796071050500552</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0.016572210208928073</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.5301079999807542</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0.47471000361298088</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.82917612070496161</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0.94411856976778108</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.67358353230621448</v>
+        <v>0.59438945516145192</v>
       </c>
     </row>
   </sheetData>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="2661">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -6937,6 +6937,1056 @@
   </si>
   <si>
     <t>2022-Jun-28</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>2026Q1</t>
+  </si>
+  <si>
+    <t>2026Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W30</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-15</t>
+  </si>
+  <si>
+    <t>2022-Jul-16</t>
+  </si>
+  <si>
+    <t>2022-Jul-17</t>
+  </si>
+  <si>
+    <t>2022-Jul-18</t>
+  </si>
+  <si>
+    <t>2022-Jul-19</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W30</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-16</t>
+  </si>
+  <si>
+    <t>2022-Jul-17</t>
+  </si>
+  <si>
+    <t>2022-Jul-18</t>
+  </si>
+  <si>
+    <t>2022-Jul-19</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W30</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-16</t>
+  </si>
+  <si>
+    <t>2022-Jul-17</t>
+  </si>
+  <si>
+    <t>2022-Jul-18</t>
+  </si>
+  <si>
+    <t>2022-Jul-19</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
   </si>
   <si>
     <t>daily1</t>
@@ -7000,7 +8050,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true"/>
+    <col min="1" max="1" width="11" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -7011,24 +8061,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2306</v>
+        <v>2656</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2307</v>
+        <v>2657</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2308</v>
+        <v>2658</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2309</v>
+        <v>2659</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2310</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2291</v>
+        <v>2641</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -7042,7 +8092,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2292</v>
+        <v>2642</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -7056,7 +8106,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2293</v>
+        <v>2643</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -7070,7 +8120,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2294</v>
+        <v>2644</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7088,7 +8138,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2295</v>
+        <v>2645</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7106,7 +8156,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2296</v>
+        <v>2646</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7122,7 +8172,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2297</v>
+        <v>2647</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7138,7 +8188,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2298</v>
+        <v>2648</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7154,7 +8204,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2299</v>
+        <v>2649</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7168,7 +8218,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7182,7 +8232,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2301</v>
+        <v>2651</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -7196,7 +8246,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2302</v>
+        <v>2652</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -7210,7 +8260,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2303</v>
+        <v>2653</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -7224,7 +8274,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2304</v>
+        <v>2654</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -7238,7 +8288,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2305</v>
+        <v>2655</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7268,24 +8318,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2213</v>
+        <v>2563</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2214</v>
+        <v>2564</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2215</v>
+        <v>2565</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2216</v>
+        <v>2566</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2217</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2194</v>
+        <v>2544</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -7297,7 +8347,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2195</v>
+        <v>2545</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -7313,7 +8363,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2196</v>
+        <v>2546</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -7327,7 +8377,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2197</v>
+        <v>2547</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7343,7 +8393,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2198</v>
+        <v>2548</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7359,7 +8409,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2199</v>
+        <v>2549</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7373,7 +8423,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2200</v>
+        <v>2550</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7387,7 +8437,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2201</v>
+        <v>2551</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7401,7 +8451,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2202</v>
+        <v>2552</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7415,7 +8465,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2203</v>
+        <v>2553</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7429,7 +8479,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2204</v>
+        <v>2554</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -7443,7 +8493,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2205</v>
+        <v>2555</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -7457,7 +8507,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2206</v>
+        <v>2556</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -7471,7 +8521,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2207</v>
+        <v>2557</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -7485,7 +8535,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2208</v>
+        <v>2558</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -7499,7 +8549,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2209</v>
+        <v>2559</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -7513,7 +8563,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2210</v>
+        <v>2560</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -7527,7 +8577,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2211</v>
+        <v>2561</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7539,7 +8589,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2212</v>
+        <v>2562</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7569,24 +8619,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2233</v>
+        <v>2583</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2234</v>
+        <v>2584</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2235</v>
+        <v>2585</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2236</v>
+        <v>2586</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2237</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2218</v>
+        <v>2568</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -7598,7 +8648,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2219</v>
+        <v>2569</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -7612,7 +8662,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2220</v>
+        <v>2570</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -7630,7 +8680,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2221</v>
+        <v>2571</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -7648,7 +8698,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2222</v>
+        <v>2572</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -7666,7 +8716,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2223</v>
+        <v>2573</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -7684,7 +8734,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2224</v>
+        <v>2574</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -7702,7 +8752,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2225</v>
+        <v>2575</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -7720,7 +8770,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2226</v>
+        <v>2576</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -7738,7 +8788,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2227</v>
+        <v>2577</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -7756,7 +8806,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2228</v>
+        <v>2578</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -7770,7 +8820,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2229</v>
+        <v>2579</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -7784,7 +8834,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2230</v>
+        <v>2580</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -7796,7 +8846,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2231</v>
+        <v>2581</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -7808,7 +8858,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2232</v>
+        <v>2582</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -7838,24 +8888,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2248</v>
+        <v>2598</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2249</v>
+        <v>2599</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2250</v>
+        <v>2600</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2251</v>
+        <v>2601</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2252</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2238</v>
+        <v>2588</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -7867,7 +8917,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2239</v>
+        <v>2589</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -7883,7 +8933,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2240</v>
+        <v>2590</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -7901,7 +8951,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2241</v>
+        <v>2591</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -7919,7 +8969,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2242</v>
+        <v>2592</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -7939,7 +8989,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2243</v>
+        <v>2593</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -7957,7 +9007,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2244</v>
+        <v>2594</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -7975,7 +9025,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2245</v>
+        <v>2595</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -7993,7 +9043,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2246</v>
+        <v>2596</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8007,7 +9057,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2247</v>
+        <v>2597</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8037,24 +9087,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2265</v>
+        <v>2615</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2266</v>
+        <v>2616</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2267</v>
+        <v>2617</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2268</v>
+        <v>2618</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2269</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2253</v>
+        <v>2603</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -8066,7 +9116,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2254</v>
+        <v>2604</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -8080,7 +9130,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2255</v>
+        <v>2605</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -8094,7 +9144,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2256</v>
+        <v>2606</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -8110,7 +9160,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2257</v>
+        <v>2607</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -8126,7 +9176,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2258</v>
+        <v>2608</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -8142,7 +9192,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2259</v>
+        <v>2609</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -8156,7 +9206,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2260</v>
+        <v>2610</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -8170,7 +9220,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2261</v>
+        <v>2611</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -8184,7 +9234,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2262</v>
+        <v>2612</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -8198,7 +9248,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2263</v>
+        <v>2613</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -8210,7 +9260,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2264</v>
+        <v>2614</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -8240,24 +9290,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2286</v>
+        <v>2636</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2287</v>
+        <v>2637</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2288</v>
+        <v>2638</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2289</v>
+        <v>2639</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2290</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2270</v>
+        <v>2620</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -8269,7 +9319,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2271</v>
+        <v>2621</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -8281,7 +9331,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2272</v>
+        <v>2622</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -8297,7 +9347,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2273</v>
+        <v>2623</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -8315,7 +9365,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2274</v>
+        <v>2624</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -8333,7 +9383,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2275</v>
+        <v>2625</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -8351,7 +9401,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2276</v>
+        <v>2626</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -8367,7 +9417,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2277</v>
+        <v>2627</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -8383,7 +9433,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2278</v>
+        <v>2628</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8397,7 +9447,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2279</v>
+        <v>2629</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8411,7 +9461,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2280</v>
+        <v>2630</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8425,7 +9475,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2281</v>
+        <v>2631</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8439,7 +9489,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2282</v>
+        <v>2632</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8453,7 +9503,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2283</v>
+        <v>2633</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8467,7 +9517,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2284</v>
+        <v>2634</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8479,7 +9529,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2285</v>
+        <v>2635</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="2661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="3012">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -7987,6 +7987,1059 @@
   </si>
   <si>
     <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>2022-Jul-31</t>
+  </si>
+  <si>
+    <t>2022-Aug-01</t>
+  </si>
+  <si>
+    <t>2022-Aug-02</t>
+  </si>
+  <si>
+    <t>2022-Aug-03</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>2022-Jul-31</t>
+  </si>
+  <si>
+    <t>2022-Aug-01</t>
+  </si>
+  <si>
+    <t>2022-Aug-02</t>
+  </si>
+  <si>
+    <t>2022-Aug-03</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-20</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>2022-Jul-31</t>
+  </si>
+  <si>
+    <t>2022-Aug-01</t>
+  </si>
+  <si>
+    <t>2022-Aug-02</t>
+  </si>
+  <si>
+    <t>2022-Aug-03</t>
   </si>
   <si>
     <t>daily1</t>
@@ -8050,7 +9103,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="true"/>
+    <col min="1" max="1" width="12" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -8061,24 +9114,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2656</v>
+        <v>3007</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2657</v>
+        <v>3008</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2658</v>
+        <v>3009</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2659</v>
+        <v>3010</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2660</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2641</v>
+        <v>2992</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -8092,7 +9145,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2642</v>
+        <v>2993</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -8106,7 +9159,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2643</v>
+        <v>2994</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -8120,7 +9173,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2644</v>
+        <v>2995</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8138,7 +9191,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2645</v>
+        <v>2996</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8156,7 +9209,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2646</v>
+        <v>2997</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8172,7 +9225,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2647</v>
+        <v>2998</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8188,7 +9241,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2648</v>
+        <v>2999</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8204,7 +9257,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2649</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8218,7 +9271,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2650</v>
+        <v>3001</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8232,7 +9285,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2651</v>
+        <v>3002</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -8246,7 +9299,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2652</v>
+        <v>3003</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -8260,7 +9313,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2653</v>
+        <v>3004</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -8274,7 +9327,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2654</v>
+        <v>3005</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -8288,7 +9341,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2655</v>
+        <v>3006</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8318,24 +9371,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2563</v>
+        <v>2914</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2564</v>
+        <v>2915</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2565</v>
+        <v>2916</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2566</v>
+        <v>2917</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2567</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2544</v>
+        <v>2895</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -8347,7 +9400,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2545</v>
+        <v>2896</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -8363,7 +9416,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2546</v>
+        <v>2897</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -8377,7 +9430,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2547</v>
+        <v>2898</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8393,7 +9446,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2548</v>
+        <v>2899</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8409,7 +9462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2549</v>
+        <v>2900</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8423,7 +9476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2550</v>
+        <v>2901</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8437,7 +9490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2551</v>
+        <v>2902</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8451,7 +9504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2552</v>
+        <v>2903</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8465,7 +9518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2553</v>
+        <v>2904</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8479,7 +9532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2554</v>
+        <v>2905</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -8493,7 +9546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2555</v>
+        <v>2906</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -8507,7 +9560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2556</v>
+        <v>2907</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -8521,7 +9574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2557</v>
+        <v>2908</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -8535,7 +9588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2558</v>
+        <v>2909</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -8549,7 +9602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2559</v>
+        <v>2910</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -8563,7 +9616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2560</v>
+        <v>2911</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -8577,7 +9630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2561</v>
+        <v>2912</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8589,7 +9642,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2562</v>
+        <v>2913</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8619,24 +9672,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2583</v>
+        <v>2934</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2584</v>
+        <v>2935</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2585</v>
+        <v>2936</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2586</v>
+        <v>2937</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2587</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2568</v>
+        <v>2919</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -8648,7 +9701,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2569</v>
+        <v>2920</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -8662,7 +9715,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2570</v>
+        <v>2921</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -8680,7 +9733,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2571</v>
+        <v>2922</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -8698,7 +9751,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2572</v>
+        <v>2923</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -8716,7 +9769,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2573</v>
+        <v>2924</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -8734,7 +9787,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2574</v>
+        <v>2925</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -8752,7 +9805,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2575</v>
+        <v>2926</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -8770,7 +9823,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2576</v>
+        <v>2927</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -8788,7 +9841,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2577</v>
+        <v>2928</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -8806,7 +9859,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2578</v>
+        <v>2929</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -8820,7 +9873,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2579</v>
+        <v>2930</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -8834,7 +9887,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2580</v>
+        <v>2931</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -8846,7 +9899,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2581</v>
+        <v>2932</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -8858,7 +9911,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2582</v>
+        <v>2933</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -8888,24 +9941,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2598</v>
+        <v>2949</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2599</v>
+        <v>2950</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2600</v>
+        <v>2951</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2601</v>
+        <v>2952</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2602</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2588</v>
+        <v>2939</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -8917,7 +9970,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2589</v>
+        <v>2940</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -8933,7 +9986,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2590</v>
+        <v>2941</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -8951,7 +10004,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2591</v>
+        <v>2942</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -8969,7 +10022,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2592</v>
+        <v>2943</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -8989,7 +10042,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2593</v>
+        <v>2944</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -9007,7 +10060,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2594</v>
+        <v>2945</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -9025,7 +10078,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2595</v>
+        <v>2946</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -9043,7 +10096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2596</v>
+        <v>2947</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -9057,7 +10110,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2597</v>
+        <v>2948</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -9087,24 +10140,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2615</v>
+        <v>2966</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2616</v>
+        <v>2967</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2617</v>
+        <v>2968</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2618</v>
+        <v>2969</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2619</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2603</v>
+        <v>2954</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -9116,7 +10169,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2604</v>
+        <v>2955</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -9130,7 +10183,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2605</v>
+        <v>2956</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -9144,7 +10197,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2606</v>
+        <v>2957</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -9160,7 +10213,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2607</v>
+        <v>2958</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -9176,7 +10229,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2608</v>
+        <v>2959</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -9192,7 +10245,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2609</v>
+        <v>2960</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -9206,7 +10259,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2610</v>
+        <v>2961</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -9220,7 +10273,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2611</v>
+        <v>2962</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -9234,7 +10287,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2612</v>
+        <v>2963</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -9248,7 +10301,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2613</v>
+        <v>2964</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -9260,7 +10313,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2614</v>
+        <v>2965</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -9290,24 +10343,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2636</v>
+        <v>2987</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2637</v>
+        <v>2988</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2638</v>
+        <v>2989</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2639</v>
+        <v>2990</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2640</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2620</v>
+        <v>2971</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -9319,7 +10372,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2621</v>
+        <v>2972</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -9331,7 +10384,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2622</v>
+        <v>2973</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -9347,7 +10400,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2623</v>
+        <v>2974</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -9365,7 +10418,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2624</v>
+        <v>2975</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -9383,7 +10436,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2625</v>
+        <v>2976</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -9401,7 +10454,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2626</v>
+        <v>2977</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -9417,7 +10470,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2627</v>
+        <v>2978</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -9433,7 +10486,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2628</v>
+        <v>2979</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9447,7 +10500,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2629</v>
+        <v>2980</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9461,7 +10514,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2630</v>
+        <v>2981</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9475,7 +10528,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2631</v>
+        <v>2982</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9489,7 +10542,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2632</v>
+        <v>2983</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9503,7 +10556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2633</v>
+        <v>2984</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9517,7 +10570,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2634</v>
+        <v>2985</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9529,7 +10582,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2635</v>
+        <v>2986</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="3012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3246">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -9040,6 +9040,708 @@
   </si>
   <si>
     <t>2022-Aug-03</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-21</t>
+  </si>
+  <si>
+    <t>2022-Jul-22</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>2022-Jul-31</t>
+  </si>
+  <si>
+    <t>2022-Aug-01</t>
+  </si>
+  <si>
+    <t>2022-Aug-02</t>
+  </si>
+  <si>
+    <t>2022-Aug-03</t>
+  </si>
+  <si>
+    <t>2022-Aug-04</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W31</t>
+  </si>
+  <si>
+    <t>2022W32</t>
+  </si>
+  <si>
+    <t>2022W33</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Jul-23</t>
+  </si>
+  <si>
+    <t>2022-Jul-24</t>
+  </si>
+  <si>
+    <t>2022-Jul-25</t>
+  </si>
+  <si>
+    <t>2022-Jul-26</t>
+  </si>
+  <si>
+    <t>2022-Jul-27</t>
+  </si>
+  <si>
+    <t>2022-Jul-28</t>
+  </si>
+  <si>
+    <t>2022-Jul-29</t>
+  </si>
+  <si>
+    <t>2022-Jul-30</t>
+  </si>
+  <si>
+    <t>2022-Jul-31</t>
+  </si>
+  <si>
+    <t>2022-Aug-01</t>
+  </si>
+  <si>
+    <t>2022-Aug-02</t>
+  </si>
+  <si>
+    <t>2022-Aug-03</t>
+  </si>
+  <si>
+    <t>2022-Aug-04</t>
+  </si>
+  <si>
+    <t>2022-Aug-05</t>
+  </si>
+  <si>
+    <t>2022-Aug-06</t>
   </si>
   <si>
     <t>daily1</t>
@@ -9114,24 +9816,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3007</v>
+        <v>3241</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3008</v>
+        <v>3242</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3009</v>
+        <v>3243</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3010</v>
+        <v>3244</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3011</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2992</v>
+        <v>3226</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -9145,7 +9847,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2993</v>
+        <v>3227</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -9159,7 +9861,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2994</v>
+        <v>3228</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -9173,7 +9875,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2995</v>
+        <v>3229</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9191,7 +9893,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2996</v>
+        <v>3230</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9209,7 +9911,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2997</v>
+        <v>3231</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9225,7 +9927,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2998</v>
+        <v>3232</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9241,7 +9943,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2999</v>
+        <v>3233</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -9257,7 +9959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3000</v>
+        <v>3234</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -9271,7 +9973,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3001</v>
+        <v>3235</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -9285,7 +9987,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3002</v>
+        <v>3236</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -9299,7 +10001,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3003</v>
+        <v>3237</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -9313,7 +10015,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3004</v>
+        <v>3238</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -9327,7 +10029,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3005</v>
+        <v>3239</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -9341,7 +10043,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3006</v>
+        <v>3240</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9371,24 +10073,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2914</v>
+        <v>3148</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2915</v>
+        <v>3149</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2916</v>
+        <v>3150</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2917</v>
+        <v>3151</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2918</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2895</v>
+        <v>3129</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -9400,7 +10102,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2896</v>
+        <v>3130</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -9416,7 +10118,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2897</v>
+        <v>3131</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -9430,7 +10132,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2898</v>
+        <v>3132</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9446,7 +10148,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2899</v>
+        <v>3133</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9462,7 +10164,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2900</v>
+        <v>3134</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9476,7 +10178,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2901</v>
+        <v>3135</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9490,7 +10192,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2902</v>
+        <v>3136</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -9504,7 +10206,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2903</v>
+        <v>3137</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -9518,7 +10220,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2904</v>
+        <v>3138</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -9532,7 +10234,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2905</v>
+        <v>3139</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -9546,7 +10248,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2906</v>
+        <v>3140</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -9560,7 +10262,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2907</v>
+        <v>3141</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -9574,7 +10276,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2908</v>
+        <v>3142</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -9588,7 +10290,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2909</v>
+        <v>3143</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -9602,7 +10304,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2910</v>
+        <v>3144</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -9616,7 +10318,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2911</v>
+        <v>3145</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -9630,7 +10332,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2912</v>
+        <v>3146</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9642,7 +10344,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2913</v>
+        <v>3147</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9672,24 +10374,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2934</v>
+        <v>3168</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2935</v>
+        <v>3169</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2936</v>
+        <v>3170</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2937</v>
+        <v>3171</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2938</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2919</v>
+        <v>3153</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -9701,7 +10403,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2920</v>
+        <v>3154</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -9715,7 +10417,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2921</v>
+        <v>3155</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -9733,7 +10435,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2922</v>
+        <v>3156</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -9751,7 +10453,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2923</v>
+        <v>3157</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -9769,7 +10471,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2924</v>
+        <v>3158</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -9787,7 +10489,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2925</v>
+        <v>3159</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -9805,7 +10507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2926</v>
+        <v>3160</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -9823,7 +10525,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2927</v>
+        <v>3161</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -9841,7 +10543,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2928</v>
+        <v>3162</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -9859,7 +10561,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2929</v>
+        <v>3163</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -9873,7 +10575,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2930</v>
+        <v>3164</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -9887,7 +10589,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2931</v>
+        <v>3165</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -9899,7 +10601,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2932</v>
+        <v>3166</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -9911,7 +10613,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2933</v>
+        <v>3167</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -9941,24 +10643,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2949</v>
+        <v>3183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2950</v>
+        <v>3184</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2951</v>
+        <v>3185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2952</v>
+        <v>3186</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2953</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2939</v>
+        <v>3173</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -9970,7 +10672,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2940</v>
+        <v>3174</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -9986,7 +10688,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2941</v>
+        <v>3175</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -10004,7 +10706,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2942</v>
+        <v>3176</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -10022,7 +10724,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2943</v>
+        <v>3177</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -10042,7 +10744,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2944</v>
+        <v>3178</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -10060,7 +10762,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2945</v>
+        <v>3179</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -10078,7 +10780,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2946</v>
+        <v>3180</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -10096,7 +10798,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2947</v>
+        <v>3181</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -10110,7 +10812,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2948</v>
+        <v>3182</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -10140,24 +10842,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2966</v>
+        <v>3200</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2967</v>
+        <v>3201</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2968</v>
+        <v>3202</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2969</v>
+        <v>3203</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2970</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2954</v>
+        <v>3188</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -10169,7 +10871,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2955</v>
+        <v>3189</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -10183,7 +10885,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2956</v>
+        <v>3190</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -10197,7 +10899,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2957</v>
+        <v>3191</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -10213,7 +10915,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2958</v>
+        <v>3192</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -10229,7 +10931,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2959</v>
+        <v>3193</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -10245,7 +10947,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2960</v>
+        <v>3194</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -10259,7 +10961,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2961</v>
+        <v>3195</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -10273,7 +10975,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2962</v>
+        <v>3196</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -10287,7 +10989,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2963</v>
+        <v>3197</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -10301,7 +11003,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2964</v>
+        <v>3198</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -10313,7 +11015,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2965</v>
+        <v>3199</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -10343,24 +11045,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>2987</v>
+        <v>3221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2988</v>
+        <v>3222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2989</v>
+        <v>3223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2990</v>
+        <v>3224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2991</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2971</v>
+        <v>3205</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -10372,7 +11074,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2972</v>
+        <v>3206</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -10384,7 +11086,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2973</v>
+        <v>3207</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -10400,7 +11102,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2974</v>
+        <v>3208</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -10418,7 +11120,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2975</v>
+        <v>3209</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -10436,7 +11138,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2976</v>
+        <v>3210</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -10454,7 +11156,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2977</v>
+        <v>3211</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -10470,7 +11172,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2978</v>
+        <v>3212</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -10486,7 +11188,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2979</v>
+        <v>3213</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -10500,7 +11202,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2980</v>
+        <v>3214</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10514,7 +11216,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2981</v>
+        <v>3215</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10528,7 +11230,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2982</v>
+        <v>3216</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10542,7 +11244,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2983</v>
+        <v>3217</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10556,7 +11258,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2984</v>
+        <v>3218</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10570,7 +11272,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2985</v>
+        <v>3219</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10582,7 +11284,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2986</v>
+        <v>3220</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="3487">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -9742,6 +9742,729 @@
   </si>
   <si>
     <t>2022-Aug-06</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-16</t>
+  </si>
+  <si>
+    <t>2022-Aug-17</t>
+  </si>
+  <si>
+    <t>2022-Aug-18</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>2026Q1</t>
+  </si>
+  <si>
+    <t>2026Q2</t>
+  </si>
+  <si>
+    <t>2026Q3</t>
+  </si>
+  <si>
+    <t>2026Q4</t>
+  </si>
+  <si>
+    <t>2027Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>2023M12</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-16</t>
+  </si>
+  <si>
+    <t>2022-Aug-17</t>
+  </si>
+  <si>
+    <t>2022-Aug-18</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
   </si>
   <si>
     <t>daily1</t>
@@ -9806,7 +10529,577 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.65388224071584267</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0">
+        <v>0.19955721675814642</v>
+      </c>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.53136992256107496</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.76566376793232815</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.63320699570099281</v>
+      </c>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.95487305652811871</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.46230161153080218</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.91542480980857088</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.11098040806502329</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.14460847014825506</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.71145069707126196</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.61688662595947208</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.85527776453778026</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.9708918229895166</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.16621400541122244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.84887238121493891</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.19528177976013084</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0">
+        <v>0.94331645648500939</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.91447719815996698</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.46457135543984585</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.67648385338108619</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>0.64386404590862556</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.48141993288964668</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.83191696183025199</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.19654757169866177</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0">
+        <v>0.39916866866111589</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.55203635815712504</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.56620262345580397</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0">
+        <v>0.51999904832218424</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>0.95097604833343885</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0">
+        <v>0.91701961681053723</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.96235767628702795</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0">
+        <v>0.66595831528527849</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0">
+        <v>0.78087184649579189</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0">
+        <v>0.10006173006187202</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.77141408990841964</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0">
+        <v>0.92895658401603221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0">
+        <v>0.22596804992873865</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0">
+        <v>0.82805123658682422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0">
+        <v>0.92452262209308145</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0">
+        <v>0.2384724745057456</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0">
+        <v>0.06456682355199006</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0">
+        <v>0.15859000431513826</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0">
+        <v>0.59006574221149255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0">
+        <v>0.038230964097294651</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.40833193054813333</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.5516401799995424</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.84704433426700709</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.94724397183917342</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.61159756891663597</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.63257530824232733</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.90890937583534026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.98724362554856937</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.32380155315588699</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.42645524872976903</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.75851126493468002</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.21529602785831103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.87371440729067962</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.96691582524106634</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.88775770688424849</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.64336407525184225</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.29392461713064044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.4041406958593825</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.51999754253787722</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.55790334246195572</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.74218807604799575</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.86157027922319396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.30915159907425149</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.73296321153947208</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.36347162097528862</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.36586668506096565</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.9041768927458762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.58896953433038268</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.64646800377996672</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.37322344312505329</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.39782512974858275</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.075928133186050961</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.80157373479418437</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.68593745770950987</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.53670955222717254</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.57241743101789611</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.86704896473462922</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0">
+        <v>0.37081119950411612</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.062131537346676091</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0">
+        <v>0.92227438347485835</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.70900684453542773</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.60366761621503051</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0">
+        <v>0.89710712640089818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0">
+        <v>0.55025168843989325</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.11073607555757481</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0">
+        <v>0.67122264768315898</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0">
+        <v>0.45311902044286989</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.18379395941211518</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0">
+        <v>0.70473719833944259</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0">
+        <v>0.72238213568856591</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
@@ -9816,255 +11109,530 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3241</v>
+        <v>3395</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3242</v>
+        <v>3396</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3243</v>
+        <v>3397</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3244</v>
+        <v>3398</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3245</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3226</v>
+        <v>3384</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0077822300572673031</v>
+        <v>0.37447071270951982</v>
       </c>
       <c r="C2" s="0"/>
-      <c r="D2" s="0">
-        <v>0.51573554602372007</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0">
-        <v>0.39351074015459975</v>
-      </c>
+        <v>3385</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.58371710618754069</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.045561033841088672</v>
+      </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
-      <c r="F3" s="0">
-        <v>0.099138056719488277</v>
-      </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0">
-        <v>0.99519551410561513</v>
-      </c>
-      <c r="E4" s="0"/>
+        <v>3386</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.24484389993399336</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.34771386757023903</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0">
+        <v>0.82271453221871882</v>
+      </c>
       <c r="F4" s="0">
-        <v>0.71515120526787057</v>
+        <v>0.092461281427141828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3229</v>
-      </c>
-      <c r="B5" s="0"/>
+        <v>3387</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.93534570956996521</v>
+      </c>
       <c r="C5" s="0">
-        <v>0.12050315499274389</v>
+        <v>0.29426703583212244</v>
       </c>
       <c r="D5" s="0">
-        <v>0.43959997944439244</v>
+        <v>0.98926466293870274</v>
       </c>
       <c r="E5" s="0">
-        <v>0.08764372229528572</v>
+        <v>0.3853576163671405</v>
       </c>
       <c r="F5" s="0">
-        <v>0.72163840661013368</v>
+        <v>0.97985039099721483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3230</v>
+        <v>3388</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
-        <v>0.71925339929635057</v>
+        <v>0.30815737452553016</v>
       </c>
       <c r="D6" s="0">
-        <v>0.15143964703215562</v>
+        <v>0.95605802527968897</v>
       </c>
       <c r="E6" s="0">
-        <v>0.47042570848164778</v>
+        <v>0.53129009644074399</v>
       </c>
       <c r="F6" s="0">
-        <v>0.78247095275140666</v>
+        <v>0.29085355935444535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3231</v>
+        <v>3389</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>0.16185410374930753</v>
-      </c>
-      <c r="D7" s="0"/>
+        <v>0.10643920192560707</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.57467079181942138</v>
+      </c>
       <c r="E7" s="0">
-        <v>0.29282961008352115</v>
+        <v>0.044460837735691427</v>
       </c>
       <c r="F7" s="0">
-        <v>0.94204510093662741</v>
+        <v>0.31816295311157672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3232</v>
+        <v>3390</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>0.12016014995296609</v>
-      </c>
-      <c r="D8" s="0"/>
+        <v>0.85841108755428575</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.32312601316547207</v>
+      </c>
       <c r="E8" s="0">
-        <v>0.40685058202552915</v>
+        <v>0.99129524195412844</v>
       </c>
       <c r="F8" s="0">
-        <v>0.047568476560669093</v>
+        <v>0.59561683832713586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3233</v>
+        <v>3391</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>0.68115210610364274</v>
-      </c>
-      <c r="D9" s="0"/>
+        <v>0.026405754442225593</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.91613842257757072</v>
+      </c>
       <c r="E9" s="0">
-        <v>0.43023724754350257</v>
+        <v>0.47547988267890751</v>
       </c>
       <c r="F9" s="0">
-        <v>0.80035038794762914</v>
+        <v>0.90917087497277616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3234</v>
+        <v>3392</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>0.14482665599498812</v>
-      </c>
-      <c r="D10" s="0"/>
+        <v>0.13081119082307202</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.83335606833008391</v>
+      </c>
       <c r="E10" s="0">
-        <v>0.87126214021995585</v>
-      </c>
-      <c r="F10" s="0"/>
+        <v>0.92847647103926945</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.3628435701354934</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3235</v>
+        <v>3393</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>0.057827752177776914</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0.70725013721772845</v>
-      </c>
+        <v>0.80069137391696954</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.26974992290136046</v>
+      </c>
+      <c r="E11" s="0"/>
       <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3236</v>
+        <v>3394</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.1349420028699555</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0.014297331274655156</v>
-      </c>
+        <v>0.41663013053898323</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.90910535130354864</v>
+      </c>
+      <c r="E12" s="0"/>
       <c r="F12" s="0"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.014780438504280236</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0">
-        <v>0.024583708446298869</v>
-      </c>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0">
-        <v>0.18911715128008877</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0.23699424717020168</v>
-      </c>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3239</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0">
-        <v>0.070862118287904563</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0.59826543626877549</v>
-      </c>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3240</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0.92619815329060862</v>
-      </c>
-      <c r="F16" s="0"/>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="true"/>
+    <col min="1" max="1" width="7.5703125" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0">
+        <v>0.61358034329509215</v>
+      </c>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.54438739430009608</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.97574074745594241</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.99579807373844764</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.66234052171382329</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.70998640218045905</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.41097485187021154</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0">
+        <v>0.6263817378558002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.76866123246793938</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.17198303537694692</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.31385669949538897</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0">
+        <v>0.46883414067929097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.70742868055727981</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.45264423582750024</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.12495909436831165</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0">
+        <v>0.48612636126819697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.72014153515519352</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.90626221472606316</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.66915431852684648</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0">
+        <v>0.86630627351218703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.71108252466569044</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.5210046778215508</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.78367549413260451</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0">
+        <v>0.81772260642137973</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.85445521844418282</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.85454371777491733</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.38582545157344983</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0">
+        <v>0.60838458208441659</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.3248152448702849</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.38706309352167967</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0">
+        <v>0.5682134971328997</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0">
+        <v>0.86325127021828307</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.85167200375194663</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0">
+        <v>0.50695315175350175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.52150295123794843</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.44907398735711246</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0">
+        <v>0.86499425009628073</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0">
+        <v>0.91444049259747062</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.82858300287704245</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0">
+        <v>0.67217281442912846</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0">
+        <v>0.27876745853275831</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.83558980729435284</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0">
+        <v>0.28858352759554939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0">
+        <v>0.89259534162396093</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0">
+        <v>0.90584960365238787</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0">
+        <v>0.75144374794368474</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0">
+        <v>0.059456478213706698</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0">
+        <v>0.67462555482634101</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0">
+        <v>0.52849832763348592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0">
+        <v>0.50824166379258484</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
@@ -10073,569 +11641,306 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3148</v>
+        <v>3439</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3149</v>
+        <v>3440</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3150</v>
+        <v>3441</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3151</v>
+        <v>3442</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3152</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.44573095817754427</v>
-      </c>
+        <v>3423</v>
+      </c>
+      <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+      <c r="E2" s="0">
+        <v>0.97228046566428361</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.18340794535874916</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3130</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.93884503662500751</v>
-      </c>
-      <c r="C3" s="0"/>
+        <v>3424</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0">
+        <v>0.86787609692051382</v>
+      </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0">
-        <v>0.25968631258850594</v>
+        <v>0.3579319823406133</v>
       </c>
       <c r="F3" s="0">
-        <v>0.74011774040288791</v>
+        <v>0.53628706057130249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
+        <v>3425</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.88378695259314466</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.63313679573939941</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.83019645048053436</v>
+      </c>
       <c r="E4" s="0">
-        <v>0.94263240618296684</v>
+        <v>0.52980326145616197</v>
       </c>
       <c r="F4" s="0">
-        <v>0.87279585035373619</v>
+        <v>0.26294399447003958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B5" s="0"/>
+        <v>3426</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.93147069596380305</v>
+      </c>
       <c r="C5" s="0">
-        <v>0.062876255893198341</v>
-      </c>
-      <c r="D5" s="0"/>
+        <v>0.55651043078371754</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.81092166878850991</v>
+      </c>
       <c r="E5" s="0">
-        <v>0.64157035754824832</v>
+        <v>0.75437803416412952</v>
       </c>
       <c r="F5" s="0">
-        <v>0.35552497550909723</v>
+        <v>0.32701021014606557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B6" s="0"/>
+        <v>3427</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.15048938247614752</v>
+      </c>
       <c r="C6" s="0">
-        <v>0.30693891165944398</v>
+        <v>0.36976695656264225</v>
       </c>
       <c r="D6" s="0">
-        <v>0.91863282773636101</v>
+        <v>0.84316941063180029</v>
       </c>
       <c r="E6" s="0">
-        <v>0.82906336692974458</v>
-      </c>
-      <c r="F6" s="0"/>
+        <v>0.36119196463031888</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.97805735603037625</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3134</v>
-      </c>
-      <c r="B7" s="0"/>
+        <v>3428</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.031262525145207443</v>
+      </c>
       <c r="C7" s="0">
-        <v>0.94976449537492202</v>
+        <v>0.53118805091278298</v>
       </c>
       <c r="D7" s="0">
-        <v>0.28348036649201613</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+        <v>0.34837252601950908</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.21563869751030518</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.19944906612870683</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B8" s="0"/>
+        <v>3429</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.1959241776886127</v>
+      </c>
       <c r="C8" s="0">
-        <v>0.010364379088872222</v>
+        <v>0.69542920683367504</v>
       </c>
       <c r="D8" s="0">
-        <v>0.058625575108405492</v>
+        <v>0.93878906363451842</v>
       </c>
       <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="F8" s="0">
+        <v>0.80249195657983285</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3136</v>
-      </c>
-      <c r="B9" s="0"/>
+        <v>3430</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.63697357431745083</v>
+      </c>
       <c r="C9" s="0">
-        <v>0.16782770842568406</v>
+        <v>0.73545601515746151</v>
       </c>
       <c r="D9" s="0">
-        <v>0.82099454693588236</v>
+        <v>0.072641664585006871</v>
       </c>
       <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+      <c r="F9" s="0">
+        <v>0.45747198584158477</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B10" s="0"/>
+        <v>3431</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.75083674859427851</v>
+      </c>
       <c r="C10" s="0">
-        <v>0.75527244805232374</v>
+        <v>0.64271938708459919</v>
       </c>
       <c r="D10" s="0">
-        <v>0.17952223505337706</v>
+        <v>0.19149315632990394</v>
       </c>
       <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+      <c r="F10" s="0">
+        <v>0.57245931670476136</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3138</v>
-      </c>
-      <c r="B11" s="0"/>
+        <v>3432</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.30883419496173381</v>
+      </c>
       <c r="C11" s="0">
-        <v>0.83382173227578615</v>
+        <v>0.77071878798110327</v>
       </c>
       <c r="D11" s="0">
-        <v>0.034931271767973393</v>
+        <v>0.54930754775190849</v>
       </c>
       <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
+      <c r="F11" s="0">
+        <v>0.18582786327030576</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B12" s="0"/>
+        <v>3433</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.42567249917811312</v>
+      </c>
       <c r="C12" s="0">
-        <v>0.6058604363839013</v>
+        <v>0.22459781036697735</v>
       </c>
       <c r="D12" s="0">
-        <v>0.77132671386163798</v>
+        <v>0.47306802548152349</v>
       </c>
       <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="F12" s="0">
+        <v>0.11937490090414182</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B13" s="0"/>
+        <v>3434</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.62736770039179779</v>
+      </c>
       <c r="C13" s="0">
-        <v>0.51791716836921375</v>
+        <v>0.43183001758250716</v>
       </c>
       <c r="D13" s="0">
-        <v>0.54052611933844585</v>
+        <v>0.075968513748951971</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B14" s="0"/>
+        <v>3435</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.62378126532917988</v>
+      </c>
       <c r="C14" s="0">
-        <v>0.94285760327738177</v>
+        <v>0.28055464527218066</v>
       </c>
       <c r="D14" s="0">
-        <v>0.33153995586090523</v>
+        <v>0.02766914851379354</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B15" s="0"/>
+        <v>3436</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.58815163650920455</v>
+      </c>
       <c r="C15" s="0">
-        <v>0.74120639554993384</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.57821660621222404</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0">
-        <v>0.70107886700560218</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.85450742181844463</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0">
-        <v>0.74471814902570488</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0.64237508408151955</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0">
-        <v>0.87382577362175251</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0.42010353240692189</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0">
-        <v>0.54591288619566236</v>
-      </c>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0">
-        <v>0.18229772836487701</v>
-      </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3169</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3170</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3171</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.95912755887763146</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.15599623700921006</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0">
-        <v>0.92640715709855381</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.92893566527503146</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.38108801203644505</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.0068242791270317626</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0">
-        <v>0.74912072944910235</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.42457418676747516</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.13617061162581501</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0">
-        <v>0.28873744940873736</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.147735486618356</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.22308394507279783</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.096626623043377213</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0.86318026492444122</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.002887745095612293</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.13639509258625593</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.30516164157148173</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0.65622849511506198</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.12701389361767523</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.26017565411199783</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.82388364986470308</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0">
-        <v>0.28469363290897831</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.91692135212511772</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.54446538298976221</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.62725286603300134</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0.64456622473528868</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.67212170725329956</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.08220839201942487</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.20593276415629758</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0.2635811785722646</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.11378980745106415</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.59812731332654612</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.98018545803758383</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0.1747786642814817</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.9602274928174962</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.029186178399368323</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0.43777428013328734</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.45490889768790432</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.83519577423989422</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.33249868418860995</v>
-      </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.9436728315558397</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>0.82490221388908891</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3167</v>
+        <v>3437</v>
       </c>
       <c r="B16" s="0">
-        <v>0.30310182000969277</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>0.30747186778167557</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.56765600969647889</v>
+      </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0">
+        <v>0.77771557514780632</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
   </cols>
@@ -10643,656 +11948,274 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3183</v>
+        <v>3462</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3184</v>
+        <v>3463</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3185</v>
+        <v>3464</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3186</v>
+        <v>3465</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3187</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3173</v>
+        <v>3444</v>
       </c>
       <c r="B2" s="0">
-        <v>0.36131340195220318</v>
-      </c>
-      <c r="C2" s="0"/>
+        <v>0.49700888126032361</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.51332315621945013</v>
+      </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3174</v>
+        <v>3445</v>
       </c>
       <c r="B3" s="0">
-        <v>0.47000049054799409</v>
+        <v>0.98820500772991648</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.80376498865828572</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.83048091668020729</v>
-      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3175</v>
+        <v>3446</v>
       </c>
       <c r="B4" s="0">
-        <v>0.058779768820967915</v>
+        <v>0.14306636244429449</v>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="0">
-        <v>0.87705814105982538</v>
-      </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="0">
-        <v>0.92309420460021674</v>
+        <v>0.56784890146795375</v>
       </c>
       <c r="F4" s="0">
-        <v>0.070176686733150917</v>
+        <v>0.42206930268810172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3176</v>
+        <v>3447</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33001170117311762</v>
+        <v>0.35399561920679634</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0">
-        <v>0.66023917747718452</v>
+        <v>0.48474730215248762</v>
       </c>
       <c r="E5" s="0">
-        <v>0.86672384014601644</v>
+        <v>0.84481489172344437</v>
       </c>
       <c r="F5" s="0">
-        <v>0.28103027716091855</v>
+        <v>0.10029898107061108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3177</v>
+        <v>3448</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2645204776577964</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.66254037311281888</v>
-      </c>
+        <v>0.52889162714942661</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" s="0">
-        <v>0.27796483841250075</v>
+        <v>0.46984985611221697</v>
       </c>
       <c r="E6" s="0">
-        <v>0.49965027253960703</v>
+        <v>0.38763783006943331</v>
       </c>
       <c r="F6" s="0">
-        <v>0.55504483760040235</v>
+        <v>0.77580815190789976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3178</v>
+        <v>3449</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24591766636495149</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.95362463049478241</v>
-      </c>
+        <v>0.68506380445259674</v>
+      </c>
+      <c r="C7" s="0"/>
       <c r="D7" s="0">
-        <v>0.65716821603671405</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.58448304484870406</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>0.84430700425389626</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0">
+        <v>0.26110702954486209</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3179</v>
+        <v>3450</v>
       </c>
       <c r="B8" s="0">
-        <v>0.94767635939633654</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.094128457055765891</v>
-      </c>
+        <v>0.51582469959464616</v>
+      </c>
+      <c r="C8" s="0"/>
       <c r="D8" s="0">
-        <v>0.64541495016219219</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.92475700145655715</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>0.1212466696796739</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0">
+        <v>0.055820942181022737</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3180</v>
+        <v>3451</v>
       </c>
       <c r="B9" s="0">
-        <v>0.032441994505736038</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.68531562192881768</v>
-      </c>
+        <v>0.090744224876968649</v>
+      </c>
+      <c r="C9" s="0"/>
       <c r="D9" s="0">
-        <v>0.89722374482655787</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.16611689760202419</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>0.15126322742596843</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0">
+        <v>0.36238380643810986</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0">
-        <v>0.41244048216533913</v>
-      </c>
+        <v>3452</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.95889277907221271</v>
+      </c>
+      <c r="C10" s="0"/>
       <c r="D10" s="0">
-        <v>0.88233656192566179</v>
+        <v>0.6645697663722584</v>
       </c>
       <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+      <c r="F10" s="0">
+        <v>0.20473499263516559</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3182</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0">
-        <v>0.11178872270825668</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>3453</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.44629108260192696</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>0.8173854414839884</v>
+      </c>
       <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>3200</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3201</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3202</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3203</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0">
-        <v>0.20938654847903992</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.7414381008537807</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.21418271638404951</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0">
-        <v>0.64067794341403839</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.066987430750163113</v>
-      </c>
-      <c r="F4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.25842844529664455</v>
-      </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0">
-        <v>0.072019326247714233</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.75716595545507981</v>
-      </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.41674615988017316</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.30719808151669192</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0.24071303354119533</v>
-      </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.38205553895575395</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.16976392194186085</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0.23090983601830073</v>
-      </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.096334132994130295</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.048765393037974891</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.13128421939369728</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.22581713100149614</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.60989827041754752</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.3669710849162775</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.65619373187934471</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.5678463849237092</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
+      <c r="F11" s="0">
+        <v>0.68387436466306539</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3198</v>
+        <v>3454</v>
       </c>
       <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>0.56971540694443779</v>
-      </c>
-      <c r="D12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>0.81330958467954573</v>
+      </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3199</v>
+        <v>3455</v>
       </c>
       <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.77877647772355263</v>
-      </c>
-      <c r="D13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>0.87251599143517233</v>
+      </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
     </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>3221</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3222</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3223</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3224</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0">
-        <v>0.76298681622354925</v>
-      </c>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.37938710268339659</v>
-      </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0">
-        <v>0.30802942665461874</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.35591431419377251</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.68595627566382344</v>
-      </c>
-      <c r="F4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.097101989426797264</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.35730070503580402</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0">
-        <v>0.69887267321937574</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.87663686032871269</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.78282152667052363</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.21669793236700852</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0.59039823504081612</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.087474067544041301</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.66752094460457012</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.67728000428304547</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0.96205553547291267</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.66791362490370298</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.61267254852844133</v>
-      </c>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0">
-        <v>0.78134565317204663</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.50242197252935406</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.34379242128970755</v>
-      </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0.53842747906190114</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.33556204066608608</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0.094138251016693042</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.58856146942586784</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0.88600868511099107</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.35193258697290986</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0.25749513344026631</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.20671765344878612</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3216</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0">
-        <v>0.46350686587619627</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.26215454629640444</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3217</v>
+        <v>3456</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0.33079827009126006</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.098649302905720382</v>
-      </c>
+      <c r="D14" s="0">
+        <v>0.41122422088785349</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3218</v>
+        <v>3457</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0.75677338768660118</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.15006318952043762</v>
-      </c>
+      <c r="D15" s="0">
+        <v>0.11627615998828333</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3219</v>
+        <v>3458</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="D16" s="0">
+        <v>0.025963167763736528</v>
+      </c>
       <c r="E16" s="0"/>
-      <c r="F16" s="0">
-        <v>0.32101934413490274</v>
-      </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3220</v>
+        <v>3459</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
+      <c r="D17" s="0">
+        <v>0.1402648693750097</v>
+      </c>
       <c r="E17" s="0"/>
-      <c r="F17" s="0">
-        <v>0.59438945516145192</v>
-      </c>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0">
+        <v>0.67692881222871615</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0">
+        <v>0.84136335473579105</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="3487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5006" uniqueCount="5006">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -10465,6 +10465,4563 @@
   </si>
   <si>
     <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-16</t>
+  </si>
+  <si>
+    <t>2022-Aug-17</t>
+  </si>
+  <si>
+    <t>2022-Aug-18</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-19</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>2030H2</t>
+  </si>
+  <si>
+    <t>2031H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>2026Q1</t>
+  </si>
+  <si>
+    <t>2026Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W34</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-20</t>
+  </si>
+  <si>
+    <t>2022-Aug-21</t>
+  </si>
+  <si>
+    <t>2022-Aug-22</t>
+  </si>
+  <si>
+    <t>2022-Aug-23</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>2023M12</t>
+  </si>
+  <si>
+    <t>2024M01</t>
+  </si>
+  <si>
+    <t>2024M02</t>
+  </si>
+  <si>
+    <t>2024M03</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>2026Q1</t>
+  </si>
+  <si>
+    <t>2026Q2</t>
+  </si>
+  <si>
+    <t>2026Q3</t>
+  </si>
+  <si>
+    <t>2026Q4</t>
+  </si>
+  <si>
+    <t>2027Q1</t>
+  </si>
+  <si>
+    <t>2027Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W35</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>2022-Sep-09</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>2030H2</t>
+  </si>
+  <si>
+    <t>2031H1</t>
+  </si>
+  <si>
+    <t>2031H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-24</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
   </si>
   <si>
     <t>daily1</t>
@@ -10529,577 +15086,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>3482</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3483</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3484</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3485</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3467</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.65388224071584267</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0">
-        <v>0.19955721675814642</v>
-      </c>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3468</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.53136992256107496</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.76566376793232815</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0.63320699570099281</v>
-      </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3469</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.95487305652811871</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.46230161153080218</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.91542480980857088</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.11098040806502329</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.14460847014825506</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3470</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.71145069707126196</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.61688662595947208</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.85527776453778026</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.9708918229895166</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.16621400541122244</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3471</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.84887238121493891</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.19528177976013084</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0.94331645648500939</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.91447719815996698</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.46457135543984585</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.67648385338108619</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0.64386404590862556</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.48141993288964668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3473</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.83191696183025199</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.19654757169866177</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0">
-        <v>0.39916866866111589</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.55203635815712504</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.56620262345580397</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0">
-        <v>0.51999904832218424</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3475</v>
-      </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0">
-        <v>0.95097604833343885</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0">
-        <v>0.91701961681053723</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0">
-        <v>0.96235767628702795</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0.66595831528527849</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3477</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>0.78087184649579189</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0">
-        <v>0.10006173006187202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3478</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.77141408990841964</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0">
-        <v>0.92895658401603221</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3479</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0">
-        <v>0.22596804992873865</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3480</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0">
-        <v>0.82805123658682422</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3481</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0">
-        <v>0.92452262209308145</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
-        <v>3379</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3380</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3381</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3382</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3363</v>
-      </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0">
-        <v>0.2384724745057456</v>
-      </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0">
-        <v>0.06456682355199006</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3364</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0">
-        <v>0.15859000431513826</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0">
-        <v>0.59006574221149255</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3365</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0">
-        <v>0.038230964097294651</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.40833193054813333</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.5516401799995424</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3366</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.84704433426700709</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.94724397183917342</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.61159756891663597</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.63257530824232733</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.90890937583534026</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3367</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.98724362554856937</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.32380155315588699</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.42645524872976903</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.75851126493468002</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.21529602785831103</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3368</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.87371440729067962</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.96691582524106634</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.88775770688424849</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.64336407525184225</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.29392461713064044</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3369</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.4041406958593825</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.51999754253787722</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.55790334246195572</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.74218807604799575</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.86157027922319396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3370</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.30915159907425149</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.73296321153947208</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.36347162097528862</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.36586668506096565</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.9041768927458762</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3371</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.58896953433038268</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.64646800377996672</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.37322344312505329</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.39782512974858275</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.075928133186050961</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3372</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.80157373479418437</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.68593745770950987</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.53670955222717254</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.57241743101789611</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.86704896473462922</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3373</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>0.37081119950411612</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.062131537346676091</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0">
-        <v>0.92227438347485835</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3374</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.70900684453542773</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.60366761621503051</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0">
-        <v>0.89710712640089818</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3375</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0">
-        <v>0.55025168843989325</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.11073607555757481</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0">
-        <v>0.67122264768315898</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3376</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0">
-        <v>0.45311902044286989</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.18379395941211518</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3377</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0">
-        <v>0.70473719833944259</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3378</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0">
-        <v>0.72238213568856591</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
@@ -11109,27 +15096,284 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3395</v>
+        <v>5001</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3396</v>
+        <v>5002</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3397</v>
+        <v>5003</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3398</v>
+        <v>5004</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3399</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3384</v>
+        <v>4986</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37447071270951982</v>
+        <v>0.0077822300572673031</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0">
+        <v>0.51573554602372007</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0">
+        <v>0.39351074015459975</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0">
+        <v>0.099138056719488277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0">
+        <v>0.99519551410561513</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0">
+        <v>0.71515120526787057</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>0.12050315499274389</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.43959997944439244</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.08764372229528572</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.72163840661013368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>0.71925339929635057</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.15143964703215562</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.47042570848164778</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.78247095275140666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>0.16185410374930753</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>0.29282961008352115</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.94204510093662741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>0.12016014995296609</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0">
+        <v>0.40685058202552915</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.047568476560669093</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>0.68115210610364274</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0">
+        <v>0.43023724754350257</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.80035038794762914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>0.14482665599498812</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0">
+        <v>0.87126214021995585</v>
+      </c>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.057827752177776914</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0">
+        <v>0.70725013721772845</v>
+      </c>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0">
+        <v>0.1349420028699555</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0">
+        <v>0.014297331274655156</v>
+      </c>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.014780438504280236</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>0.024583708446298869</v>
+      </c>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0">
+        <v>0.18911715128008877</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>0.23699424717020168</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0">
+        <v>0.070862118287904563</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>0.59826543626877549</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>0.92619815329060862</v>
+      </c>
+      <c r="F16" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4911</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.44573095817754427</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
@@ -11138,173 +15382,526 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3385</v>
+        <v>4890</v>
       </c>
       <c r="B3" s="0">
-        <v>0.58371710618754069</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.045561033841088672</v>
-      </c>
+        <v>0.93884503662500751</v>
+      </c>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.25968631258850594</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.74011774040288791</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3386</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.24484389993399336</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.34771386757023903</v>
-      </c>
+        <v>4891</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0">
-        <v>0.82271453221871882</v>
+        <v>0.94263240618296684</v>
       </c>
       <c r="F4" s="0">
-        <v>0.092461281427141828</v>
+        <v>0.87279585035373619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3387</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.93534570956996521</v>
-      </c>
+        <v>4892</v>
+      </c>
+      <c r="B5" s="0"/>
       <c r="C5" s="0">
-        <v>0.29426703583212244</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.98926466293870274</v>
-      </c>
+        <v>0.062876255893198341</v>
+      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>0.3853576163671405</v>
+        <v>0.64157035754824832</v>
       </c>
       <c r="F5" s="0">
-        <v>0.97985039099721483</v>
+        <v>0.35552497550909723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3388</v>
+        <v>4893</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
-        <v>0.30815737452553016</v>
+        <v>0.30693891165944398</v>
       </c>
       <c r="D6" s="0">
-        <v>0.95605802527968897</v>
+        <v>0.91863282773636101</v>
       </c>
       <c r="E6" s="0">
-        <v>0.53129009644074399</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.29085355935444535</v>
-      </c>
+        <v>0.82906336692974458</v>
+      </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3389</v>
+        <v>4894</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>0.10643920192560707</v>
+        <v>0.94976449537492202</v>
       </c>
       <c r="D7" s="0">
-        <v>0.57467079181942138</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.044460837735691427</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.31816295311157672</v>
-      </c>
+        <v>0.28348036649201613</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3390</v>
+        <v>4895</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>0.85841108755428575</v>
+        <v>0.010364379088872222</v>
       </c>
       <c r="D8" s="0">
-        <v>0.32312601316547207</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.99129524195412844</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.59561683832713586</v>
-      </c>
+        <v>0.058625575108405492</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3391</v>
+        <v>4896</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>0.026405754442225593</v>
+        <v>0.16782770842568406</v>
       </c>
       <c r="D9" s="0">
-        <v>0.91613842257757072</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.47547988267890751</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.90917087497277616</v>
-      </c>
+        <v>0.82099454693588236</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3392</v>
+        <v>4897</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>0.13081119082307202</v>
+        <v>0.75527244805232374</v>
       </c>
       <c r="D10" s="0">
-        <v>0.83335606833008391</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.92847647103926945</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.3628435701354934</v>
-      </c>
+        <v>0.17952223505337706</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3393</v>
+        <v>4898</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>0.80069137391696954</v>
+        <v>0.83382173227578615</v>
       </c>
       <c r="D11" s="0">
-        <v>0.26974992290136046</v>
+        <v>0.034931271767973393</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3394</v>
+        <v>4899</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.41663013053898323</v>
+        <v>0.6058604363839013</v>
       </c>
       <c r="D12" s="0">
-        <v>0.90910535130354864</v>
+        <v>0.77132671386163798</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0">
+        <v>0.51791716836921375</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.54052611933844585</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0">
+        <v>0.94285760327738177</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.33153995586090523</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0">
+        <v>0.74120639554993384</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.57821660621222404</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0">
+        <v>0.70107886700560218</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.85450742181844463</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0">
+        <v>0.74471814902570488</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.64237508408151955</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0">
+        <v>0.87382577362175251</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.42010353240692189</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0">
+        <v>0.54591288619566236</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0">
+        <v>0.18229772836487701</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4930</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4931</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.95912755887763146</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.15599623700921006</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0">
+        <v>0.92640715709855381</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.92893566527503146</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.38108801203644505</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.0068242791270317626</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0">
+        <v>0.74912072944910235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.42457418676747516</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.13617061162581501</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0">
+        <v>0.28873744940873736</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.147735486618356</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.22308394507279783</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.096626623043377213</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0">
+        <v>0.86318026492444122</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.002887745095612293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.13639509258625593</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.30516164157148173</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>0.65622849511506198</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.12701389361767523</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.26017565411199783</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.82388364986470308</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0">
+        <v>0.28469363290897831</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.91692135212511772</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.54446538298976221</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.62725286603300134</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0">
+        <v>0.64456622473528868</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.67212170725329956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.08220839201942487</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.20593276415629758</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0">
+        <v>0.2635811785722646</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.11378980745106415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.59812731332654612</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.98018545803758383</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0">
+        <v>0.1747786642814817</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.9602274928174962</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.029186178399368323</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.43777428013328734</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.45490889768790432</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.83519577423989422</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.33249868418860995</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.9436728315558397</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.30310182000969277</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -11312,12 +15909,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
@@ -11326,300 +15923,184 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3418</v>
+        <v>4943</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3419</v>
+        <v>4944</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3420</v>
+        <v>4945</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3421</v>
+        <v>4946</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3422</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3400</v>
-      </c>
-      <c r="B2" s="0"/>
+        <v>4933</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.36131340195220318</v>
+      </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0">
-        <v>0.61358034329509215</v>
-      </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3401</v>
+        <v>4934</v>
       </c>
       <c r="B3" s="0">
-        <v>0.54438739430009608</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.97574074745594241</v>
-      </c>
+        <v>0.47000049054799409</v>
+      </c>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.80376498865828572</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.83048091668020729</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3402</v>
+        <v>4935</v>
       </c>
       <c r="B4" s="0">
-        <v>0.99579807373844764</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.66234052171382329</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+        <v>0.058779768820967915</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0">
+        <v>0.87705814105982538</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.92309420460021674</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.070176686733150917</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3403</v>
+        <v>4936</v>
       </c>
       <c r="B5" s="0">
-        <v>0.70998640218045905</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.41097485187021154</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+        <v>0.33001170117311762</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0">
+        <v>0.66023917747718452</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.86672384014601644</v>
+      </c>
       <c r="F5" s="0">
-        <v>0.6263817378558002</v>
+        <v>0.28103027716091855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3404</v>
+        <v>4937</v>
       </c>
       <c r="B6" s="0">
-        <v>0.76866123246793938</v>
+        <v>0.2645204776577964</v>
       </c>
       <c r="C6" s="0">
-        <v>0.17198303537694692</v>
+        <v>0.66254037311281888</v>
       </c>
       <c r="D6" s="0">
-        <v>0.31385669949538897</v>
-      </c>
-      <c r="E6" s="0"/>
+        <v>0.27796483841250075</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.49965027253960703</v>
+      </c>
       <c r="F6" s="0">
-        <v>0.46883414067929097</v>
+        <v>0.55504483760040235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3405</v>
+        <v>4938</v>
       </c>
       <c r="B7" s="0">
-        <v>0.70742868055727981</v>
+        <v>0.24591766636495149</v>
       </c>
       <c r="C7" s="0">
-        <v>0.45264423582750024</v>
+        <v>0.95362463049478241</v>
       </c>
       <c r="D7" s="0">
-        <v>0.12495909436831165</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0">
-        <v>0.48612636126819697</v>
-      </c>
+        <v>0.65716821603671405</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.58448304484870406</v>
+      </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3406</v>
+        <v>4939</v>
       </c>
       <c r="B8" s="0">
-        <v>0.72014153515519352</v>
+        <v>0.94767635939633654</v>
       </c>
       <c r="C8" s="0">
-        <v>0.90626221472606316</v>
+        <v>0.094128457055765891</v>
       </c>
       <c r="D8" s="0">
-        <v>0.66915431852684648</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0">
-        <v>0.86630627351218703</v>
-      </c>
+        <v>0.64541495016219219</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.92475700145655715</v>
+      </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3407</v>
+        <v>4940</v>
       </c>
       <c r="B9" s="0">
-        <v>0.71108252466569044</v>
+        <v>0.032441994505736038</v>
       </c>
       <c r="C9" s="0">
-        <v>0.5210046778215508</v>
+        <v>0.68531562192881768</v>
       </c>
       <c r="D9" s="0">
-        <v>0.78367549413260451</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0">
-        <v>0.81772260642137973</v>
-      </c>
+        <v>0.89722374482655787</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.16611689760202419</v>
+      </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3408</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.85445521844418282</v>
-      </c>
+        <v>4941</v>
+      </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>0.85454371777491733</v>
+        <v>0.41244048216533913</v>
       </c>
       <c r="D10" s="0">
-        <v>0.38582545157344983</v>
+        <v>0.88233656192566179</v>
       </c>
       <c r="E10" s="0"/>
-      <c r="F10" s="0">
-        <v>0.60838458208441659</v>
-      </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3409</v>
+        <v>4942</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>0.3248152448702849</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.38706309352167967</v>
-      </c>
+        <v>0.11178872270825668</v>
+      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0.5682134971328997</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>0.86325127021828307</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.85167200375194663</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0">
-        <v>0.50695315175350175</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3411</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>0.52150295123794843</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.44907398735711246</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0">
-        <v>0.86499425009628073</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3412</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0">
-        <v>0.91444049259747062</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.82858300287704245</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0">
-        <v>0.67217281442912846</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3413</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0">
-        <v>0.27876745853275831</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.83558980729435284</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0">
-        <v>0.28858352759554939</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3414</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0">
-        <v>0.89259534162396093</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0">
-        <v>0.90584960365238787</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3415</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0">
-        <v>0.75144374794368474</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0">
-        <v>0.059456478213706698</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3416</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0">
-        <v>0.67462555482634101</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0">
-        <v>0.52849832763348592</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3417</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0">
-        <v>0.50824166379258484</v>
-      </c>
+      <c r="F11" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -11627,306 +16108,202 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3439</v>
+        <v>4960</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3440</v>
+        <v>4961</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3441</v>
+        <v>4962</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3442</v>
+        <v>4963</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3443</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3423</v>
+        <v>4948</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0">
-        <v>0.97228046566428361</v>
-      </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="0">
-        <v>0.18340794535874916</v>
+        <v>0.20938654847903992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3424</v>
+        <v>4949</v>
       </c>
       <c r="B3" s="0"/>
-      <c r="C3" s="0">
-        <v>0.86787609692051382</v>
-      </c>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0">
-        <v>0.3579319823406133</v>
+        <v>0.7414381008537807</v>
       </c>
       <c r="F3" s="0">
-        <v>0.53628706057130249</v>
+        <v>0.21418271638404951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3425</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.88378695259314466</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.63313679573939941</v>
-      </c>
+        <v>4950</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
       <c r="D4" s="0">
-        <v>0.83019645048053436</v>
+        <v>0.64067794341403839</v>
       </c>
       <c r="E4" s="0">
-        <v>0.52980326145616197</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.26294399447003958</v>
-      </c>
+        <v>0.066987430750163113</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3426</v>
+        <v>4951</v>
       </c>
       <c r="B5" s="0">
-        <v>0.93147069596380305</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.55651043078371754</v>
-      </c>
+        <v>0.25842844529664455</v>
+      </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="0">
-        <v>0.81092166878850991</v>
+        <v>0.072019326247714233</v>
       </c>
       <c r="E5" s="0">
-        <v>0.75437803416412952</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.32701021014606557</v>
-      </c>
+        <v>0.75716595545507981</v>
+      </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3427</v>
+        <v>4952</v>
       </c>
       <c r="B6" s="0">
-        <v>0.15048938247614752</v>
+        <v>0.41674615988017316</v>
       </c>
       <c r="C6" s="0">
-        <v>0.36976695656264225</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.84316941063180029</v>
-      </c>
+        <v>0.30719808151669192</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
-        <v>0.36119196463031888</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.97805735603037625</v>
-      </c>
+        <v>0.24071303354119533</v>
+      </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3428</v>
+        <v>4953</v>
       </c>
       <c r="B7" s="0">
-        <v>0.031262525145207443</v>
+        <v>0.38205553895575395</v>
       </c>
       <c r="C7" s="0">
-        <v>0.53118805091278298</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.34837252601950908</v>
-      </c>
+        <v>0.16976392194186085</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0">
-        <v>0.21563869751030518</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.19944906612870683</v>
-      </c>
+        <v>0.23090983601830073</v>
+      </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3429</v>
+        <v>4954</v>
       </c>
       <c r="B8" s="0">
-        <v>0.1959241776886127</v>
+        <v>0.096334132994130295</v>
       </c>
       <c r="C8" s="0">
-        <v>0.69542920683367504</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.93878906363451842</v>
-      </c>
+        <v>0.048765393037974891</v>
+      </c>
+      <c r="D8" s="0"/>
       <c r="E8" s="0"/>
-      <c r="F8" s="0">
-        <v>0.80249195657983285</v>
-      </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3430</v>
+        <v>4955</v>
       </c>
       <c r="B9" s="0">
-        <v>0.63697357431745083</v>
+        <v>0.13128421939369728</v>
       </c>
       <c r="C9" s="0">
-        <v>0.73545601515746151</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.072641664585006871</v>
-      </c>
+        <v>0.22581713100149614</v>
+      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="0">
-        <v>0.45747198584158477</v>
-      </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3431</v>
+        <v>4956</v>
       </c>
       <c r="B10" s="0">
-        <v>0.75083674859427851</v>
+        <v>0.60989827041754752</v>
       </c>
       <c r="C10" s="0">
-        <v>0.64271938708459919</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.19149315632990394</v>
-      </c>
+        <v>0.3669710849162775</v>
+      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="0">
-        <v>0.57245931670476136</v>
-      </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3432</v>
+        <v>4957</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30883419496173381</v>
+        <v>0.65619373187934471</v>
       </c>
       <c r="C11" s="0">
-        <v>0.77071878798110327</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.54930754775190849</v>
-      </c>
+        <v>0.5678463849237092</v>
+      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0.18582786327030576</v>
-      </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.42567249917811312</v>
-      </c>
+        <v>4958</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0">
-        <v>0.22459781036697735</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.47306802548152349</v>
-      </c>
+        <v>0.56971540694443779</v>
+      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="0">
-        <v>0.11937490090414182</v>
-      </c>
+      <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3434</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.62736770039179779</v>
-      </c>
+        <v>4959</v>
+      </c>
+      <c r="B13" s="0"/>
       <c r="C13" s="0">
-        <v>0.43183001758250716</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.075968513748951971</v>
-      </c>
+        <v>0.77877647772355263</v>
+      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.62378126532917988</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0.28055464527218066</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.02766914851379354</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.58815163650920455</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0.82490221388908891</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.30747186778167557</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0.56765600969647889</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3438</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0">
-        <v>0.77771557514780632</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -11934,288 +16311,268 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>3462</v>
+        <v>4981</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3463</v>
+        <v>4982</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3464</v>
+        <v>4983</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3465</v>
+        <v>4984</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3466</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3444</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.49700888126032361</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.51332315621945013</v>
-      </c>
+        <v>4965</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="E2" s="0">
+        <v>0.76298681622354925</v>
+      </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.98820500772991648</v>
-      </c>
+        <v>4966</v>
+      </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="0">
+        <v>0.37938710268339659</v>
+      </c>
       <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3446</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.14306636244429449</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
+        <v>4967</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0">
+        <v>0.30802942665461874</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.35591431419377251</v>
+      </c>
       <c r="E4" s="0">
-        <v>0.56784890146795375</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.42206930268810172</v>
-      </c>
+        <v>0.68595627566382344</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3447</v>
+        <v>4968</v>
       </c>
       <c r="B5" s="0">
-        <v>0.35399561920679634</v>
-      </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0">
-        <v>0.48474730215248762</v>
-      </c>
+        <v>0.097101989426797264</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.35730070503580402</v>
+      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>0.84481489172344437</v>
+        <v>0.69887267321937574</v>
       </c>
       <c r="F5" s="0">
-        <v>0.10029898107061108</v>
+        <v>0.87663686032871269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3448</v>
+        <v>4969</v>
       </c>
       <c r="B6" s="0">
-        <v>0.52889162714942661</v>
-      </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0">
-        <v>0.46984985611221697</v>
-      </c>
+        <v>0.78282152667052363</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.21669793236700852</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
-        <v>0.38763783006943331</v>
+        <v>0.59039823504081612</v>
       </c>
       <c r="F6" s="0">
-        <v>0.77580815190789976</v>
+        <v>0.087474067544041301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3449</v>
+        <v>4970</v>
       </c>
       <c r="B7" s="0">
-        <v>0.68506380445259674</v>
-      </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0">
-        <v>0.84430700425389626</v>
-      </c>
-      <c r="E7" s="0"/>
+        <v>0.66752094460457012</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.67728000428304547</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0">
+        <v>0.96205553547291267</v>
+      </c>
       <c r="F7" s="0">
-        <v>0.26110702954486209</v>
+        <v>0.66791362490370298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3450</v>
+        <v>4971</v>
       </c>
       <c r="B8" s="0">
-        <v>0.51582469959464616</v>
+        <v>0.61267254852844133</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="0">
-        <v>0.1212466696796739</v>
-      </c>
-      <c r="E8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0">
+        <v>0.78134565317204663</v>
+      </c>
       <c r="F8" s="0">
-        <v>0.055820942181022737</v>
+        <v>0.50242197252935406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3451</v>
+        <v>4972</v>
       </c>
       <c r="B9" s="0">
-        <v>0.090744224876968649</v>
+        <v>0.34379242128970755</v>
       </c>
       <c r="C9" s="0"/>
-      <c r="D9" s="0">
-        <v>0.15126322742596843</v>
-      </c>
-      <c r="E9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0">
+        <v>0.53842747906190114</v>
+      </c>
       <c r="F9" s="0">
-        <v>0.36238380643810986</v>
+        <v>0.33556204066608608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3452</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.95889277907221271</v>
-      </c>
+        <v>4973</v>
+      </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="0">
-        <v>0.6645697663722584</v>
-      </c>
-      <c r="E10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0">
+        <v>0.094138251016693042</v>
+      </c>
       <c r="F10" s="0">
-        <v>0.20473499263516559</v>
+        <v>0.58856146942586784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3453</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.44629108260192696</v>
-      </c>
+        <v>4974</v>
+      </c>
+      <c r="B11" s="0"/>
       <c r="C11" s="0"/>
-      <c r="D11" s="0">
-        <v>0.8173854414839884</v>
-      </c>
-      <c r="E11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0">
+        <v>0.88600868511099107</v>
+      </c>
       <c r="F11" s="0">
-        <v>0.68387436466306539</v>
+        <v>0.35193258697290986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3454</v>
+        <v>4975</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="0">
-        <v>0.81330958467954573</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0">
+        <v>0.25749513344026631</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.20671765344878612</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3455</v>
+        <v>4976</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>0.87251599143517233</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>0.46350686587619627</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.26215454629640444</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3456</v>
+        <v>4977</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="0">
-        <v>0.41122422088785349</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>0.33079827009126006</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.098649302905720382</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3457</v>
+        <v>4978</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>0.11627615998828333</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>0.75677338768660118</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.15006318952043762</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3458</v>
+        <v>4979</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="0">
-        <v>0.025963167763736528</v>
-      </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="F16" s="0">
+        <v>0.32101934413490274</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3459</v>
+        <v>4980</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
-      <c r="D17" s="0">
-        <v>0.1402648693750097</v>
-      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3460</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0">
-        <v>0.67692881222871615</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3461</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0">
-        <v>0.84136335473579105</v>
-      </c>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="F17" s="0">
+        <v>0.59438945516145192</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5006" uniqueCount="5006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="5123">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -14320,6 +14320,357 @@
   </si>
   <si>
     <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W36</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Aug-25</t>
+  </si>
+  <si>
+    <t>2022-Aug-26</t>
+  </si>
+  <si>
+    <t>2022-Aug-27</t>
+  </si>
+  <si>
+    <t>2022-Aug-28</t>
+  </si>
+  <si>
+    <t>2022-Aug-29</t>
+  </si>
+  <si>
+    <t>2022-Aug-30</t>
+  </si>
+  <si>
+    <t>2022-Aug-31</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
   </si>
   <si>
     <t>daily1</t>
@@ -15096,24 +15447,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5001</v>
+        <v>5118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5002</v>
+        <v>5119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5003</v>
+        <v>5120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5004</v>
+        <v>5121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5005</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4986</v>
+        <v>5103</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -15127,7 +15478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4987</v>
+        <v>5104</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -15141,7 +15492,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4988</v>
+        <v>5105</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -15155,7 +15506,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4989</v>
+        <v>5106</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15173,7 +15524,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4990</v>
+        <v>5107</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15191,7 +15542,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4991</v>
+        <v>5108</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15207,7 +15558,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4992</v>
+        <v>5109</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15223,7 +15574,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4993</v>
+        <v>5110</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15239,7 +15590,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4994</v>
+        <v>5111</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15253,7 +15604,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4995</v>
+        <v>5112</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15267,7 +15618,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4996</v>
+        <v>5113</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -15281,7 +15632,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4997</v>
+        <v>5114</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -15295,7 +15646,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4998</v>
+        <v>5115</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -15309,7 +15660,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4999</v>
+        <v>5116</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -15323,7 +15674,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5000</v>
+        <v>5117</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15353,24 +15704,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>4908</v>
+        <v>5025</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4909</v>
+        <v>5026</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4910</v>
+        <v>5027</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4911</v>
+        <v>5028</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4912</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4889</v>
+        <v>5006</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -15382,7 +15733,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4890</v>
+        <v>5007</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -15398,7 +15749,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4891</v>
+        <v>5008</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -15412,7 +15763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4892</v>
+        <v>5009</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15428,7 +15779,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4893</v>
+        <v>5010</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15444,7 +15795,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4894</v>
+        <v>5011</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15458,7 +15809,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4895</v>
+        <v>5012</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15472,7 +15823,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4896</v>
+        <v>5013</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15486,7 +15837,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4897</v>
+        <v>5014</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15500,7 +15851,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4898</v>
+        <v>5015</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15514,7 +15865,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4899</v>
+        <v>5016</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -15528,7 +15879,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4900</v>
+        <v>5017</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -15542,7 +15893,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4901</v>
+        <v>5018</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -15556,7 +15907,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4902</v>
+        <v>5019</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -15570,7 +15921,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4903</v>
+        <v>5020</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -15584,7 +15935,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4904</v>
+        <v>5021</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -15598,7 +15949,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4905</v>
+        <v>5022</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -15612,7 +15963,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4906</v>
+        <v>5023</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15624,7 +15975,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4907</v>
+        <v>5024</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15654,24 +16005,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>4928</v>
+        <v>5045</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4929</v>
+        <v>5046</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4930</v>
+        <v>5047</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4931</v>
+        <v>5048</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4932</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4913</v>
+        <v>5030</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -15683,7 +16034,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4914</v>
+        <v>5031</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -15697,7 +16048,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4915</v>
+        <v>5032</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -15715,7 +16066,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4916</v>
+        <v>5033</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -15733,7 +16084,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4917</v>
+        <v>5034</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -15751,7 +16102,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4918</v>
+        <v>5035</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -15769,7 +16120,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4919</v>
+        <v>5036</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -15787,7 +16138,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4920</v>
+        <v>5037</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -15805,7 +16156,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4921</v>
+        <v>5038</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -15823,7 +16174,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4922</v>
+        <v>5039</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -15841,7 +16192,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4923</v>
+        <v>5040</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -15855,7 +16206,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4924</v>
+        <v>5041</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -15869,7 +16220,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4925</v>
+        <v>5042</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -15881,7 +16232,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4926</v>
+        <v>5043</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -15893,7 +16244,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4927</v>
+        <v>5044</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -15923,24 +16274,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>4943</v>
+        <v>5060</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4944</v>
+        <v>5061</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4945</v>
+        <v>5062</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4946</v>
+        <v>5063</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4947</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4933</v>
+        <v>5050</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -15952,7 +16303,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4934</v>
+        <v>5051</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -15968,7 +16319,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4935</v>
+        <v>5052</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -15986,7 +16337,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4936</v>
+        <v>5053</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -16004,7 +16355,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4937</v>
+        <v>5054</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -16024,7 +16375,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4938</v>
+        <v>5055</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -16042,7 +16393,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4939</v>
+        <v>5056</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -16060,7 +16411,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4940</v>
+        <v>5057</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -16078,7 +16429,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4941</v>
+        <v>5058</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16092,7 +16443,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4942</v>
+        <v>5059</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16122,24 +16473,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>4960</v>
+        <v>5077</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4961</v>
+        <v>5078</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4962</v>
+        <v>5079</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4963</v>
+        <v>5080</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4964</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4948</v>
+        <v>5065</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16151,7 +16502,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4949</v>
+        <v>5066</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -16165,7 +16516,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4950</v>
+        <v>5067</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -16179,7 +16530,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4951</v>
+        <v>5068</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -16195,7 +16546,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4952</v>
+        <v>5069</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -16211,7 +16562,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4953</v>
+        <v>5070</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -16227,7 +16578,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4954</v>
+        <v>5071</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -16241,7 +16592,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4955</v>
+        <v>5072</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -16255,7 +16606,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4956</v>
+        <v>5073</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -16269,7 +16620,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4957</v>
+        <v>5074</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -16283,7 +16634,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4958</v>
+        <v>5075</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -16295,7 +16646,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4959</v>
+        <v>5076</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -16325,24 +16676,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>4981</v>
+        <v>5098</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4982</v>
+        <v>5099</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4983</v>
+        <v>5100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4984</v>
+        <v>5101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4985</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4965</v>
+        <v>5082</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16354,7 +16705,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4966</v>
+        <v>5083</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -16366,7 +16717,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4967</v>
+        <v>5084</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -16382,7 +16733,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4968</v>
+        <v>5085</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -16400,7 +16751,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4969</v>
+        <v>5086</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -16418,7 +16769,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4970</v>
+        <v>5087</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -16436,7 +16787,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4971</v>
+        <v>5088</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -16452,7 +16803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4972</v>
+        <v>5089</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -16468,7 +16819,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4973</v>
+        <v>5090</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16482,7 +16833,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4974</v>
+        <v>5091</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -16496,7 +16847,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4975</v>
+        <v>5092</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16510,7 +16861,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4976</v>
+        <v>5093</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16524,7 +16875,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4977</v>
+        <v>5094</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16538,7 +16889,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4978</v>
+        <v>5095</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16552,7 +16903,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4979</v>
+        <v>5096</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16564,7 +16915,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4980</v>
+        <v>5097</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="5123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="5357">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -15373,6 +15373,708 @@
   </si>
   <si>
     <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>2022-Sep-09</t>
+  </si>
+  <si>
+    <t>2022-Sep-10</t>
+  </si>
+  <si>
+    <t>2022-Sep-11</t>
+  </si>
+  <si>
+    <t>2022-Sep-12</t>
+  </si>
+  <si>
+    <t>2022-Sep-13</t>
+  </si>
+  <si>
+    <t>2022-Sep-14</t>
+  </si>
+  <si>
+    <t>2022-Sep-15</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M09</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W37</t>
+  </si>
+  <si>
+    <t>2022W38</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-01</t>
+  </si>
+  <si>
+    <t>2022-Sep-02</t>
+  </si>
+  <si>
+    <t>2022-Sep-03</t>
+  </si>
+  <si>
+    <t>2022-Sep-04</t>
+  </si>
+  <si>
+    <t>2022-Sep-05</t>
+  </si>
+  <si>
+    <t>2022-Sep-06</t>
+  </si>
+  <si>
+    <t>2022-Sep-07</t>
+  </si>
+  <si>
+    <t>2022-Sep-08</t>
+  </si>
+  <si>
+    <t>2022-Sep-09</t>
+  </si>
+  <si>
+    <t>2022-Sep-10</t>
+  </si>
+  <si>
+    <t>2022-Sep-11</t>
+  </si>
+  <si>
+    <t>2022-Sep-12</t>
+  </si>
+  <si>
+    <t>2022-Sep-13</t>
+  </si>
+  <si>
+    <t>2022-Sep-14</t>
+  </si>
+  <si>
+    <t>2022-Sep-15</t>
   </si>
   <si>
     <t>daily1</t>
@@ -15436,7 +16138,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="true"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -15447,24 +16149,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5118</v>
+        <v>5352</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5119</v>
+        <v>5353</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5120</v>
+        <v>5354</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5121</v>
+        <v>5355</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5122</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5103</v>
+        <v>5337</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -15478,7 +16180,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5104</v>
+        <v>5338</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -15492,7 +16194,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5105</v>
+        <v>5339</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -15506,7 +16208,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5106</v>
+        <v>5340</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15524,7 +16226,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5107</v>
+        <v>5341</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15542,7 +16244,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5108</v>
+        <v>5342</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15558,7 +16260,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5109</v>
+        <v>5343</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15574,7 +16276,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5110</v>
+        <v>5344</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15590,7 +16292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5111</v>
+        <v>5345</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15604,7 +16306,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5112</v>
+        <v>5346</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15618,7 +16320,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5113</v>
+        <v>5347</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -15632,7 +16334,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5114</v>
+        <v>5348</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -15646,7 +16348,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5115</v>
+        <v>5349</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -15660,7 +16362,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5116</v>
+        <v>5350</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -15674,7 +16376,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5117</v>
+        <v>5351</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15704,24 +16406,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5025</v>
+        <v>5259</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5026</v>
+        <v>5260</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5027</v>
+        <v>5261</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5028</v>
+        <v>5262</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5029</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5006</v>
+        <v>5240</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -15733,7 +16435,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5007</v>
+        <v>5241</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -15749,7 +16451,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5008</v>
+        <v>5242</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -15763,7 +16465,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5009</v>
+        <v>5243</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15779,7 +16481,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5010</v>
+        <v>5244</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15795,7 +16497,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5011</v>
+        <v>5245</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15809,7 +16511,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5012</v>
+        <v>5246</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15823,7 +16525,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5013</v>
+        <v>5247</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15837,7 +16539,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5014</v>
+        <v>5248</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15851,7 +16553,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5015</v>
+        <v>5249</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15865,7 +16567,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5016</v>
+        <v>5250</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -15879,7 +16581,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5017</v>
+        <v>5251</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -15893,7 +16595,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5018</v>
+        <v>5252</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -15907,7 +16609,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5019</v>
+        <v>5253</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -15921,7 +16623,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5020</v>
+        <v>5254</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -15935,7 +16637,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5021</v>
+        <v>5255</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -15949,7 +16651,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5022</v>
+        <v>5256</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -15963,7 +16665,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5023</v>
+        <v>5257</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15975,7 +16677,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5024</v>
+        <v>5258</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16005,24 +16707,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5045</v>
+        <v>5279</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5046</v>
+        <v>5280</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5047</v>
+        <v>5281</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5048</v>
+        <v>5282</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5049</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5030</v>
+        <v>5264</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -16034,7 +16736,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5031</v>
+        <v>5265</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -16048,7 +16750,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5032</v>
+        <v>5266</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -16066,7 +16768,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5033</v>
+        <v>5267</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -16084,7 +16786,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5034</v>
+        <v>5268</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -16102,7 +16804,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5035</v>
+        <v>5269</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -16120,7 +16822,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5036</v>
+        <v>5270</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -16138,7 +16840,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5037</v>
+        <v>5271</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -16156,7 +16858,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5038</v>
+        <v>5272</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -16174,7 +16876,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5039</v>
+        <v>5273</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -16192,7 +16894,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5040</v>
+        <v>5274</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -16206,7 +16908,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5041</v>
+        <v>5275</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -16220,7 +16922,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5042</v>
+        <v>5276</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -16232,7 +16934,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5043</v>
+        <v>5277</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -16244,7 +16946,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5044</v>
+        <v>5278</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -16274,24 +16976,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5060</v>
+        <v>5294</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5061</v>
+        <v>5295</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5062</v>
+        <v>5296</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5063</v>
+        <v>5297</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5064</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5050</v>
+        <v>5284</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -16303,7 +17005,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5051</v>
+        <v>5285</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -16319,7 +17021,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5052</v>
+        <v>5286</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -16337,7 +17039,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5053</v>
+        <v>5287</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -16355,7 +17057,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5054</v>
+        <v>5288</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -16375,7 +17077,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5055</v>
+        <v>5289</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -16393,7 +17095,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5056</v>
+        <v>5290</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -16411,7 +17113,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5057</v>
+        <v>5291</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -16429,7 +17131,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5058</v>
+        <v>5292</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16443,7 +17145,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5059</v>
+        <v>5293</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16473,24 +17175,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5077</v>
+        <v>5311</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5078</v>
+        <v>5312</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5079</v>
+        <v>5313</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5080</v>
+        <v>5314</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5081</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5065</v>
+        <v>5299</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16502,7 +17204,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5066</v>
+        <v>5300</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -16516,7 +17218,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5067</v>
+        <v>5301</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -16530,7 +17232,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5068</v>
+        <v>5302</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -16546,7 +17248,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5069</v>
+        <v>5303</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -16562,7 +17264,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5070</v>
+        <v>5304</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -16578,7 +17280,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5071</v>
+        <v>5305</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -16592,7 +17294,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5072</v>
+        <v>5306</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -16606,7 +17308,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5073</v>
+        <v>5307</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -16620,7 +17322,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5074</v>
+        <v>5308</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -16634,7 +17336,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5075</v>
+        <v>5309</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -16646,7 +17348,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5076</v>
+        <v>5310</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -16676,24 +17378,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5098</v>
+        <v>5332</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5099</v>
+        <v>5333</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5100</v>
+        <v>5334</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5101</v>
+        <v>5335</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5102</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5082</v>
+        <v>5316</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16705,7 +17407,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5083</v>
+        <v>5317</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -16717,7 +17419,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5084</v>
+        <v>5318</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -16733,7 +17435,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5085</v>
+        <v>5319</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -16751,7 +17453,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5086</v>
+        <v>5320</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -16769,7 +17471,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5087</v>
+        <v>5321</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -16787,7 +17489,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5088</v>
+        <v>5322</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -16803,7 +17505,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5089</v>
+        <v>5323</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -16819,7 +17521,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5090</v>
+        <v>5324</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16833,7 +17535,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5091</v>
+        <v>5325</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -16847,7 +17549,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5092</v>
+        <v>5326</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16861,7 +17563,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5093</v>
+        <v>5327</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16875,7 +17577,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5094</v>
+        <v>5328</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16889,7 +17591,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5095</v>
+        <v>5329</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16903,7 +17605,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5096</v>
+        <v>5330</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16915,7 +17617,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5097</v>
+        <v>5331</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="5357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="6176">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -16075,6 +16075,2463 @@
   </si>
   <si>
     <t>2022-Sep-15</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-16</t>
+  </si>
+  <si>
+    <t>2022-Sep-17</t>
+  </si>
+  <si>
+    <t>2022-Sep-18</t>
+  </si>
+  <si>
+    <t>2022-Sep-19</t>
+  </si>
+  <si>
+    <t>2022-Sep-20</t>
+  </si>
+  <si>
+    <t>2022-Sep-21</t>
+  </si>
+  <si>
+    <t>2022-Sep-22</t>
+  </si>
+  <si>
+    <t>2022-Sep-23</t>
+  </si>
+  <si>
+    <t>2022-Sep-24</t>
+  </si>
+  <si>
+    <t>2022-Sep-25</t>
+  </si>
+  <si>
+    <t>2022-Sep-26</t>
+  </si>
+  <si>
+    <t>2022-Sep-27</t>
+  </si>
+  <si>
+    <t>2022-Sep-28</t>
+  </si>
+  <si>
+    <t>2022-Sep-29</t>
+  </si>
+  <si>
+    <t>2022-Sep-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-16</t>
+  </si>
+  <si>
+    <t>2022-Sep-17</t>
+  </si>
+  <si>
+    <t>2022-Sep-18</t>
+  </si>
+  <si>
+    <t>2022-Sep-19</t>
+  </si>
+  <si>
+    <t>2022-Sep-20</t>
+  </si>
+  <si>
+    <t>2022-Sep-21</t>
+  </si>
+  <si>
+    <t>2022-Sep-22</t>
+  </si>
+  <si>
+    <t>2022-Sep-23</t>
+  </si>
+  <si>
+    <t>2022-Sep-24</t>
+  </si>
+  <si>
+    <t>2022-Sep-25</t>
+  </si>
+  <si>
+    <t>2022-Sep-26</t>
+  </si>
+  <si>
+    <t>2022-Sep-27</t>
+  </si>
+  <si>
+    <t>2022-Sep-28</t>
+  </si>
+  <si>
+    <t>2022-Sep-29</t>
+  </si>
+  <si>
+    <t>2022-Sep-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-16</t>
+  </si>
+  <si>
+    <t>2022-Sep-17</t>
+  </si>
+  <si>
+    <t>2022-Sep-18</t>
+  </si>
+  <si>
+    <t>2022-Sep-19</t>
+  </si>
+  <si>
+    <t>2022-Sep-20</t>
+  </si>
+  <si>
+    <t>2022-Sep-21</t>
+  </si>
+  <si>
+    <t>2022-Sep-22</t>
+  </si>
+  <si>
+    <t>2022-Sep-23</t>
+  </si>
+  <si>
+    <t>2022-Sep-24</t>
+  </si>
+  <si>
+    <t>2022-Sep-25</t>
+  </si>
+  <si>
+    <t>2022-Sep-26</t>
+  </si>
+  <si>
+    <t>2022-Sep-27</t>
+  </si>
+  <si>
+    <t>2022-Sep-28</t>
+  </si>
+  <si>
+    <t>2022-Sep-29</t>
+  </si>
+  <si>
+    <t>2022-Sep-30</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-19</t>
+  </si>
+  <si>
+    <t>2022-Sep-20</t>
+  </si>
+  <si>
+    <t>2022-Sep-21</t>
+  </si>
+  <si>
+    <t>2022-Sep-22</t>
+  </si>
+  <si>
+    <t>2022-Sep-23</t>
+  </si>
+  <si>
+    <t>2022-Sep-24</t>
+  </si>
+  <si>
+    <t>2022-Sep-25</t>
+  </si>
+  <si>
+    <t>2022-Sep-26</t>
+  </si>
+  <si>
+    <t>2022-Sep-27</t>
+  </si>
+  <si>
+    <t>2022-Sep-28</t>
+  </si>
+  <si>
+    <t>2022-Sep-29</t>
+  </si>
+  <si>
+    <t>2022-Sep-30</t>
+  </si>
+  <si>
+    <t>2022-Oct-01</t>
+  </si>
+  <si>
+    <t>2022-Oct-02</t>
+  </si>
+  <si>
+    <t>2022-Oct-03</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M10</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W39</t>
+  </si>
+  <si>
+    <t>2022W40</t>
+  </si>
+  <si>
+    <t>2022W41</t>
+  </si>
+  <si>
+    <t>2022W42</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Sep-19</t>
+  </si>
+  <si>
+    <t>2022-Sep-20</t>
+  </si>
+  <si>
+    <t>2022-Sep-21</t>
+  </si>
+  <si>
+    <t>2022-Sep-22</t>
+  </si>
+  <si>
+    <t>2022-Sep-23</t>
+  </si>
+  <si>
+    <t>2022-Sep-24</t>
+  </si>
+  <si>
+    <t>2022-Sep-25</t>
+  </si>
+  <si>
+    <t>2022-Sep-26</t>
+  </si>
+  <si>
+    <t>2022-Sep-27</t>
+  </si>
+  <si>
+    <t>2022-Sep-28</t>
+  </si>
+  <si>
+    <t>2022-Sep-29</t>
+  </si>
+  <si>
+    <t>2022-Sep-30</t>
+  </si>
+  <si>
+    <t>2022-Oct-01</t>
+  </si>
+  <si>
+    <t>2022-Oct-02</t>
+  </si>
+  <si>
+    <t>2022-Oct-03</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Oct-17</t>
+  </si>
+  <si>
+    <t>2022-Oct-18</t>
+  </si>
+  <si>
+    <t>2022-Oct-19</t>
+  </si>
+  <si>
+    <t>2022-Oct-20</t>
+  </si>
+  <si>
+    <t>2022-Oct-21</t>
+  </si>
+  <si>
+    <t>2022-Oct-22</t>
+  </si>
+  <si>
+    <t>2022-Oct-23</t>
+  </si>
+  <si>
+    <t>2022-Oct-24</t>
+  </si>
+  <si>
+    <t>2022-Oct-25</t>
+  </si>
+  <si>
+    <t>2022-Oct-26</t>
+  </si>
+  <si>
+    <t>2022-Oct-27</t>
+  </si>
+  <si>
+    <t>2022-Oct-28</t>
+  </si>
+  <si>
+    <t>2022-Oct-29</t>
+  </si>
+  <si>
+    <t>2022-Oct-30</t>
+  </si>
+  <si>
+    <t>2022-Oct-31</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W43</t>
+  </si>
+  <si>
+    <t>2022W44</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Oct-17</t>
+  </si>
+  <si>
+    <t>2022-Oct-18</t>
+  </si>
+  <si>
+    <t>2022-Oct-19</t>
+  </si>
+  <si>
+    <t>2022-Oct-20</t>
+  </si>
+  <si>
+    <t>2022-Oct-21</t>
+  </si>
+  <si>
+    <t>2022-Oct-22</t>
+  </si>
+  <si>
+    <t>2022-Oct-23</t>
+  </si>
+  <si>
+    <t>2022-Oct-24</t>
+  </si>
+  <si>
+    <t>2022-Oct-25</t>
+  </si>
+  <si>
+    <t>2022-Oct-26</t>
+  </si>
+  <si>
+    <t>2022-Oct-27</t>
+  </si>
+  <si>
+    <t>2022-Oct-28</t>
+  </si>
+  <si>
+    <t>2022-Oct-29</t>
+  </si>
+  <si>
+    <t>2022-Oct-30</t>
+  </si>
+  <si>
+    <t>2022-Oct-31</t>
   </si>
   <si>
     <t>daily1</t>
@@ -16138,7 +18595,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -16149,24 +18606,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5352</v>
+        <v>6171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5353</v>
+        <v>6172</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5354</v>
+        <v>6173</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5355</v>
+        <v>6174</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5356</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5337</v>
+        <v>6156</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -16180,7 +18637,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5338</v>
+        <v>6157</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -16194,7 +18651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5339</v>
+        <v>6158</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -16208,7 +18665,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5340</v>
+        <v>6159</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16226,7 +18683,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5341</v>
+        <v>6160</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16244,7 +18701,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5342</v>
+        <v>6161</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16260,7 +18717,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5343</v>
+        <v>6162</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16276,7 +18733,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5344</v>
+        <v>6163</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -16292,7 +18749,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5345</v>
+        <v>6164</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16306,7 +18763,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5346</v>
+        <v>6165</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16320,7 +18777,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5347</v>
+        <v>6166</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -16334,7 +18791,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5348</v>
+        <v>6167</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -16348,7 +18805,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5349</v>
+        <v>6168</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -16362,7 +18819,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5350</v>
+        <v>6169</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -16376,7 +18833,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5351</v>
+        <v>6170</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16406,24 +18863,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5259</v>
+        <v>6078</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5260</v>
+        <v>6079</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5261</v>
+        <v>6080</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5262</v>
+        <v>6081</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5263</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5240</v>
+        <v>6059</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -16435,7 +18892,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5241</v>
+        <v>6060</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -16451,7 +18908,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5242</v>
+        <v>6061</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -16465,7 +18922,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5243</v>
+        <v>6062</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16481,7 +18938,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5244</v>
+        <v>6063</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16497,7 +18954,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5245</v>
+        <v>6064</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16511,7 +18968,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5246</v>
+        <v>6065</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16525,7 +18982,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5247</v>
+        <v>6066</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -16539,7 +18996,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5248</v>
+        <v>6067</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16553,7 +19010,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5249</v>
+        <v>6068</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16567,7 +19024,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5250</v>
+        <v>6069</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -16581,7 +19038,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5251</v>
+        <v>6070</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -16595,7 +19052,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5252</v>
+        <v>6071</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -16609,7 +19066,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5253</v>
+        <v>6072</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -16623,7 +19080,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5254</v>
+        <v>6073</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -16637,7 +19094,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5255</v>
+        <v>6074</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -16651,7 +19108,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5256</v>
+        <v>6075</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -16665,7 +19122,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5257</v>
+        <v>6076</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16677,7 +19134,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5258</v>
+        <v>6077</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16707,24 +19164,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5279</v>
+        <v>6098</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5280</v>
+        <v>6099</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5281</v>
+        <v>6100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5282</v>
+        <v>6101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5283</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5264</v>
+        <v>6083</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -16736,7 +19193,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5265</v>
+        <v>6084</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -16750,7 +19207,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5266</v>
+        <v>6085</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -16768,7 +19225,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5267</v>
+        <v>6086</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -16786,7 +19243,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5268</v>
+        <v>6087</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -16804,7 +19261,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5269</v>
+        <v>6088</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -16822,7 +19279,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5270</v>
+        <v>6089</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -16840,7 +19297,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5271</v>
+        <v>6090</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -16858,7 +19315,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5272</v>
+        <v>6091</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -16876,7 +19333,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5273</v>
+        <v>6092</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -16894,7 +19351,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5274</v>
+        <v>6093</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -16908,7 +19365,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5275</v>
+        <v>6094</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -16922,7 +19379,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5276</v>
+        <v>6095</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -16934,7 +19391,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5277</v>
+        <v>6096</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -16946,7 +19403,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5278</v>
+        <v>6097</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -16976,24 +19433,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5294</v>
+        <v>6113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5295</v>
+        <v>6114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5296</v>
+        <v>6115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5297</v>
+        <v>6116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5298</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5284</v>
+        <v>6103</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -17005,7 +19462,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5285</v>
+        <v>6104</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -17021,7 +19478,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5286</v>
+        <v>6105</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -17039,7 +19496,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5287</v>
+        <v>6106</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -17057,7 +19514,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5288</v>
+        <v>6107</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -17077,7 +19534,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5289</v>
+        <v>6108</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -17095,7 +19552,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5290</v>
+        <v>6109</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -17113,7 +19570,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5291</v>
+        <v>6110</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -17131,7 +19588,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5292</v>
+        <v>6111</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -17145,7 +19602,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5293</v>
+        <v>6112</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -17175,24 +19632,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5311</v>
+        <v>6130</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5312</v>
+        <v>6131</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5313</v>
+        <v>6132</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5314</v>
+        <v>6133</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5315</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5299</v>
+        <v>6118</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -17204,7 +19661,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5300</v>
+        <v>6119</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -17218,7 +19675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5301</v>
+        <v>6120</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -17232,7 +19689,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5302</v>
+        <v>6121</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -17248,7 +19705,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5303</v>
+        <v>6122</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -17264,7 +19721,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5304</v>
+        <v>6123</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -17280,7 +19737,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5305</v>
+        <v>6124</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -17294,7 +19751,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5306</v>
+        <v>6125</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -17308,7 +19765,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5307</v>
+        <v>6126</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -17322,7 +19779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5308</v>
+        <v>6127</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -17336,7 +19793,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5309</v>
+        <v>6128</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -17348,7 +19805,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5310</v>
+        <v>6129</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -17378,24 +19835,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>5332</v>
+        <v>6151</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5333</v>
+        <v>6152</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5334</v>
+        <v>6153</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5335</v>
+        <v>6154</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5336</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5316</v>
+        <v>6135</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -17407,7 +19864,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5317</v>
+        <v>6136</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -17419,7 +19876,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5318</v>
+        <v>6137</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -17435,7 +19892,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5319</v>
+        <v>6138</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -17453,7 +19910,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5320</v>
+        <v>6139</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -17471,7 +19928,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5321</v>
+        <v>6140</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -17489,7 +19946,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5322</v>
+        <v>6141</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -17505,7 +19962,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5323</v>
+        <v>6142</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -17521,7 +19978,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5324</v>
+        <v>6143</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -17535,7 +19992,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5325</v>
+        <v>6144</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -17549,7 +20006,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5326</v>
+        <v>6145</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17563,7 +20020,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5327</v>
+        <v>6146</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17577,7 +20034,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5328</v>
+        <v>6147</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17591,7 +20048,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5329</v>
+        <v>6148</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17605,7 +20062,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5330</v>
+        <v>6149</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17617,7 +20074,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5331</v>
+        <v>6150</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="6176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="6293">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -18532,6 +18532,357 @@
   </si>
   <si>
     <t>2022-Oct-31</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M11</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W45</t>
+  </si>
+  <si>
+    <t>2022W46</t>
+  </si>
+  <si>
+    <t>2022W47</t>
+  </si>
+  <si>
+    <t>2022W48</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>2023W07</t>
+  </si>
+  <si>
+    <t>2023W08</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Oct-27</t>
+  </si>
+  <si>
+    <t>2022-Oct-28</t>
+  </si>
+  <si>
+    <t>2022-Oct-29</t>
+  </si>
+  <si>
+    <t>2022-Oct-30</t>
+  </si>
+  <si>
+    <t>2022-Oct-31</t>
+  </si>
+  <si>
+    <t>2022-Nov-01</t>
+  </si>
+  <si>
+    <t>2022-Nov-02</t>
+  </si>
+  <si>
+    <t>2022-Nov-03</t>
+  </si>
+  <si>
+    <t>2022-Nov-04</t>
+  </si>
+  <si>
+    <t>2022-Nov-05</t>
+  </si>
+  <si>
+    <t>2022-Nov-06</t>
+  </si>
+  <si>
+    <t>2022-Nov-07</t>
+  </si>
+  <si>
+    <t>2022-Nov-08</t>
+  </si>
+  <si>
+    <t>2022-Nov-09</t>
+  </si>
+  <si>
+    <t>2022-Nov-10</t>
   </si>
   <si>
     <t>daily1</t>
@@ -18595,7 +18946,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -18606,24 +18957,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6171</v>
+        <v>6288</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6172</v>
+        <v>6289</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6173</v>
+        <v>6290</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6174</v>
+        <v>6291</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6175</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6156</v>
+        <v>6273</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -18637,7 +18988,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6157</v>
+        <v>6274</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -18651,7 +19002,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6158</v>
+        <v>6275</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -18665,7 +19016,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6159</v>
+        <v>6276</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -18683,7 +19034,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6160</v>
+        <v>6277</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -18701,7 +19052,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6161</v>
+        <v>6278</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18717,7 +19068,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6162</v>
+        <v>6279</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18733,7 +19084,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6163</v>
+        <v>6280</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -18749,7 +19100,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6164</v>
+        <v>6281</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -18763,7 +19114,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6165</v>
+        <v>6282</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -18777,7 +19128,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6166</v>
+        <v>6283</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -18791,7 +19142,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6167</v>
+        <v>6284</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -18805,7 +19156,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6168</v>
+        <v>6285</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -18819,7 +19170,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6169</v>
+        <v>6286</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -18833,7 +19184,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6170</v>
+        <v>6287</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18863,24 +19214,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6078</v>
+        <v>6195</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6079</v>
+        <v>6196</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6080</v>
+        <v>6197</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6081</v>
+        <v>6198</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6082</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6059</v>
+        <v>6176</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -18892,7 +19243,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6060</v>
+        <v>6177</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -18908,7 +19259,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6061</v>
+        <v>6178</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -18922,7 +19273,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6062</v>
+        <v>6179</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -18938,7 +19289,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6063</v>
+        <v>6180</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -18954,7 +19305,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6064</v>
+        <v>6181</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18968,7 +19319,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6065</v>
+        <v>6182</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18982,7 +19333,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6066</v>
+        <v>6183</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -18996,7 +19347,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6067</v>
+        <v>6184</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19010,7 +19361,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6068</v>
+        <v>6185</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19024,7 +19375,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6069</v>
+        <v>6186</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -19038,7 +19389,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6070</v>
+        <v>6187</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -19052,7 +19403,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6071</v>
+        <v>6188</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -19066,7 +19417,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6072</v>
+        <v>6189</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -19080,7 +19431,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6073</v>
+        <v>6190</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -19094,7 +19445,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6074</v>
+        <v>6191</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -19108,7 +19459,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6075</v>
+        <v>6192</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -19122,7 +19473,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6076</v>
+        <v>6193</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19134,7 +19485,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6077</v>
+        <v>6194</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19164,24 +19515,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6098</v>
+        <v>6215</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6099</v>
+        <v>6216</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6100</v>
+        <v>6217</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6101</v>
+        <v>6218</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6102</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6083</v>
+        <v>6200</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -19193,7 +19544,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6084</v>
+        <v>6201</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -19207,7 +19558,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6085</v>
+        <v>6202</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -19225,7 +19576,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6086</v>
+        <v>6203</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -19243,7 +19594,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6087</v>
+        <v>6204</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -19261,7 +19612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6088</v>
+        <v>6205</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -19279,7 +19630,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6089</v>
+        <v>6206</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -19297,7 +19648,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6090</v>
+        <v>6207</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -19315,7 +19666,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6091</v>
+        <v>6208</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -19333,7 +19684,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6092</v>
+        <v>6209</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -19351,7 +19702,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6093</v>
+        <v>6210</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -19365,7 +19716,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6094</v>
+        <v>6211</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -19379,7 +19730,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6095</v>
+        <v>6212</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -19391,7 +19742,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6096</v>
+        <v>6213</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -19403,7 +19754,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6097</v>
+        <v>6214</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -19433,24 +19784,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6113</v>
+        <v>6230</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6114</v>
+        <v>6231</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6115</v>
+        <v>6232</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6116</v>
+        <v>6233</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6117</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6103</v>
+        <v>6220</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -19462,7 +19813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6104</v>
+        <v>6221</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -19478,7 +19829,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6105</v>
+        <v>6222</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -19496,7 +19847,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6106</v>
+        <v>6223</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -19514,7 +19865,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6107</v>
+        <v>6224</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -19534,7 +19885,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6108</v>
+        <v>6225</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -19552,7 +19903,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6109</v>
+        <v>6226</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -19570,7 +19921,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6110</v>
+        <v>6227</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -19588,7 +19939,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6111</v>
+        <v>6228</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19602,7 +19953,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6112</v>
+        <v>6229</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19632,24 +19983,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6130</v>
+        <v>6247</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6131</v>
+        <v>6248</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6132</v>
+        <v>6249</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6133</v>
+        <v>6250</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6134</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6118</v>
+        <v>6235</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -19661,7 +20012,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6119</v>
+        <v>6236</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -19675,7 +20026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6120</v>
+        <v>6237</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19689,7 +20040,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6121</v>
+        <v>6238</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -19705,7 +20056,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6122</v>
+        <v>6239</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -19721,7 +20072,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6123</v>
+        <v>6240</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -19737,7 +20088,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6124</v>
+        <v>6241</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -19751,7 +20102,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6125</v>
+        <v>6242</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -19765,7 +20116,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6126</v>
+        <v>6243</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -19779,7 +20130,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6127</v>
+        <v>6244</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -19793,7 +20144,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6128</v>
+        <v>6245</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -19805,7 +20156,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6129</v>
+        <v>6246</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -19835,24 +20186,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6151</v>
+        <v>6268</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6152</v>
+        <v>6269</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6153</v>
+        <v>6270</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6154</v>
+        <v>6271</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6155</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6135</v>
+        <v>6252</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -19864,7 +20215,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6136</v>
+        <v>6253</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -19876,7 +20227,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6137</v>
+        <v>6254</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -19892,7 +20243,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6138</v>
+        <v>6255</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -19910,7 +20261,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6139</v>
+        <v>6256</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -19928,7 +20279,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6140</v>
+        <v>6257</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -19946,7 +20297,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6141</v>
+        <v>6258</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -19962,7 +20313,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6142</v>
+        <v>6259</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -19978,7 +20329,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6143</v>
+        <v>6260</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -19992,7 +20343,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6144</v>
+        <v>6261</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -20006,7 +20357,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6145</v>
+        <v>6262</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20020,7 +20371,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6146</v>
+        <v>6263</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20034,7 +20385,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6147</v>
+        <v>6264</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20048,7 +20399,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6148</v>
+        <v>6265</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20062,7 +20413,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6149</v>
+        <v>6266</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20074,7 +20425,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6150</v>
+        <v>6267</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="6293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="6527">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -18883,6 +18883,708 @@
   </si>
   <si>
     <t>2022-Nov-10</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>2023W07</t>
+  </si>
+  <si>
+    <t>2023W08</t>
+  </si>
+  <si>
+    <t>2023W09</t>
+  </si>
+  <si>
+    <t>2023W10</t>
+  </si>
+  <si>
+    <t>2023W11</t>
+  </si>
+  <si>
+    <t>2023W12</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Nov-25</t>
+  </si>
+  <si>
+    <t>2022-Nov-26</t>
+  </si>
+  <si>
+    <t>2022-Nov-27</t>
+  </si>
+  <si>
+    <t>2022-Nov-28</t>
+  </si>
+  <si>
+    <t>2022-Nov-29</t>
+  </si>
+  <si>
+    <t>2022-Nov-30</t>
+  </si>
+  <si>
+    <t>2022-Dec-01</t>
+  </si>
+  <si>
+    <t>2022-Dec-02</t>
+  </si>
+  <si>
+    <t>2022-Dec-03</t>
+  </si>
+  <si>
+    <t>2022-Dec-04</t>
+  </si>
+  <si>
+    <t>2022-Dec-05</t>
+  </si>
+  <si>
+    <t>2022-Dec-06</t>
+  </si>
+  <si>
+    <t>2022-Dec-07</t>
+  </si>
+  <si>
+    <t>2022-Dec-08</t>
+  </si>
+  <si>
+    <t>2022-Dec-09</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2022M12</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W49</t>
+  </si>
+  <si>
+    <t>2022W50</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>2023W07</t>
+  </si>
+  <si>
+    <t>2023W08</t>
+  </si>
+  <si>
+    <t>2023W09</t>
+  </si>
+  <si>
+    <t>2023W10</t>
+  </si>
+  <si>
+    <t>2023W11</t>
+  </si>
+  <si>
+    <t>2023W12</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Nov-25</t>
+  </si>
+  <si>
+    <t>2022-Nov-26</t>
+  </si>
+  <si>
+    <t>2022-Nov-27</t>
+  </si>
+  <si>
+    <t>2022-Nov-28</t>
+  </si>
+  <si>
+    <t>2022-Nov-29</t>
+  </si>
+  <si>
+    <t>2022-Nov-30</t>
+  </si>
+  <si>
+    <t>2022-Dec-01</t>
+  </si>
+  <si>
+    <t>2022-Dec-02</t>
+  </si>
+  <si>
+    <t>2022-Dec-03</t>
+  </si>
+  <si>
+    <t>2022-Dec-04</t>
+  </si>
+  <si>
+    <t>2022-Dec-05</t>
+  </si>
+  <si>
+    <t>2022-Dec-06</t>
+  </si>
+  <si>
+    <t>2022-Dec-07</t>
+  </si>
+  <si>
+    <t>2022-Dec-08</t>
+  </si>
+  <si>
+    <t>2022-Dec-09</t>
   </si>
   <si>
     <t>daily1</t>
@@ -18957,24 +19659,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6288</v>
+        <v>6522</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6289</v>
+        <v>6523</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6290</v>
+        <v>6524</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6291</v>
+        <v>6525</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6292</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6273</v>
+        <v>6507</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -18988,7 +19690,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6274</v>
+        <v>6508</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -19002,7 +19704,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6275</v>
+        <v>6509</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19016,7 +19718,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6276</v>
+        <v>6510</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19034,7 +19736,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6277</v>
+        <v>6511</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19052,7 +19754,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6278</v>
+        <v>6512</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19068,7 +19770,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6279</v>
+        <v>6513</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19084,7 +19786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6280</v>
+        <v>6514</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -19100,7 +19802,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6281</v>
+        <v>6515</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19114,7 +19816,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6282</v>
+        <v>6516</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19128,7 +19830,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6283</v>
+        <v>6517</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -19142,7 +19844,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6284</v>
+        <v>6518</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -19156,7 +19858,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6285</v>
+        <v>6519</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -19170,7 +19872,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6286</v>
+        <v>6520</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -19184,7 +19886,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6287</v>
+        <v>6521</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19214,24 +19916,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6195</v>
+        <v>6429</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6196</v>
+        <v>6430</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6197</v>
+        <v>6431</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6198</v>
+        <v>6432</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6199</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6176</v>
+        <v>6410</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -19243,7 +19945,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6177</v>
+        <v>6411</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -19259,7 +19961,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6178</v>
+        <v>6412</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19273,7 +19975,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6179</v>
+        <v>6413</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19289,7 +19991,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6180</v>
+        <v>6414</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19305,7 +20007,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6181</v>
+        <v>6415</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19319,7 +20021,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6182</v>
+        <v>6416</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19333,7 +20035,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6183</v>
+        <v>6417</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -19347,7 +20049,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6184</v>
+        <v>6418</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19361,7 +20063,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6185</v>
+        <v>6419</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19375,7 +20077,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6186</v>
+        <v>6420</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -19389,7 +20091,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6187</v>
+        <v>6421</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -19403,7 +20105,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6188</v>
+        <v>6422</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -19417,7 +20119,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6189</v>
+        <v>6423</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -19431,7 +20133,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6190</v>
+        <v>6424</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -19445,7 +20147,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6191</v>
+        <v>6425</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -19459,7 +20161,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6192</v>
+        <v>6426</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -19473,7 +20175,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6193</v>
+        <v>6427</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19485,7 +20187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6194</v>
+        <v>6428</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19515,24 +20217,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6215</v>
+        <v>6449</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6216</v>
+        <v>6450</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6217</v>
+        <v>6451</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6218</v>
+        <v>6452</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6219</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6200</v>
+        <v>6434</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -19544,7 +20246,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6201</v>
+        <v>6435</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -19558,7 +20260,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6202</v>
+        <v>6436</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -19576,7 +20278,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6203</v>
+        <v>6437</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -19594,7 +20296,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6204</v>
+        <v>6438</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -19612,7 +20314,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6205</v>
+        <v>6439</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -19630,7 +20332,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6206</v>
+        <v>6440</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -19648,7 +20350,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6207</v>
+        <v>6441</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -19666,7 +20368,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6208</v>
+        <v>6442</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -19684,7 +20386,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6209</v>
+        <v>6443</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -19702,7 +20404,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6210</v>
+        <v>6444</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -19716,7 +20418,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6211</v>
+        <v>6445</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -19730,7 +20432,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6212</v>
+        <v>6446</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -19742,7 +20444,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6213</v>
+        <v>6447</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -19754,7 +20456,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6214</v>
+        <v>6448</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -19784,24 +20486,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6230</v>
+        <v>6464</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6231</v>
+        <v>6465</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6232</v>
+        <v>6466</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6233</v>
+        <v>6467</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6234</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6220</v>
+        <v>6454</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -19813,7 +20515,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6221</v>
+        <v>6455</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -19829,7 +20531,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6222</v>
+        <v>6456</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -19847,7 +20549,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6223</v>
+        <v>6457</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -19865,7 +20567,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6224</v>
+        <v>6458</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -19885,7 +20587,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6225</v>
+        <v>6459</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -19903,7 +20605,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6226</v>
+        <v>6460</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -19921,7 +20623,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6227</v>
+        <v>6461</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -19939,7 +20641,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6228</v>
+        <v>6462</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19953,7 +20655,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6229</v>
+        <v>6463</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19983,24 +20685,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6247</v>
+        <v>6481</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6248</v>
+        <v>6482</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6249</v>
+        <v>6483</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6250</v>
+        <v>6484</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6251</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6235</v>
+        <v>6469</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -20012,7 +20714,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6236</v>
+        <v>6470</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20026,7 +20728,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6237</v>
+        <v>6471</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -20040,7 +20742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6238</v>
+        <v>6472</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -20056,7 +20758,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6239</v>
+        <v>6473</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -20072,7 +20774,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6240</v>
+        <v>6474</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -20088,7 +20790,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6241</v>
+        <v>6475</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -20102,7 +20804,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6242</v>
+        <v>6476</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -20116,7 +20818,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6243</v>
+        <v>6477</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -20130,7 +20832,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6244</v>
+        <v>6478</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -20144,7 +20846,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6245</v>
+        <v>6479</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -20156,7 +20858,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6246</v>
+        <v>6480</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -20186,24 +20888,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6268</v>
+        <v>6502</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6269</v>
+        <v>6503</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6270</v>
+        <v>6504</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6271</v>
+        <v>6505</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6272</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6252</v>
+        <v>6486</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -20215,7 +20917,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6253</v>
+        <v>6487</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20227,7 +20929,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6254</v>
+        <v>6488</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -20243,7 +20945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6255</v>
+        <v>6489</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -20261,7 +20963,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6256</v>
+        <v>6490</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -20279,7 +20981,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6257</v>
+        <v>6491</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -20297,7 +20999,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6258</v>
+        <v>6492</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -20313,7 +21015,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6259</v>
+        <v>6493</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -20329,7 +21031,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6260</v>
+        <v>6494</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -20343,7 +21045,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6261</v>
+        <v>6495</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -20357,7 +21059,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6262</v>
+        <v>6496</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20371,7 +21073,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6263</v>
+        <v>6497</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20385,7 +21087,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6264</v>
+        <v>6498</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20399,7 +21101,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6265</v>
+        <v>6499</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20413,7 +21115,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6266</v>
+        <v>6500</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20425,7 +21127,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6267</v>
+        <v>6501</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="6527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="6644">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -19585,6 +19585,357 @@
   </si>
   <si>
     <t>2022-Dec-09</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2023Y</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H1</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2023M01</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>2023M12</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2022W51</t>
+  </si>
+  <si>
+    <t>2022W52</t>
+  </si>
+  <si>
+    <t>2023W01</t>
+  </si>
+  <si>
+    <t>2023W02</t>
+  </si>
+  <si>
+    <t>2023W03</t>
+  </si>
+  <si>
+    <t>2023W04</t>
+  </si>
+  <si>
+    <t>2023W05</t>
+  </si>
+  <si>
+    <t>2023W06</t>
+  </si>
+  <si>
+    <t>2023W07</t>
+  </si>
+  <si>
+    <t>2023W08</t>
+  </si>
+  <si>
+    <t>2023W09</t>
+  </si>
+  <si>
+    <t>2023W10</t>
+  </si>
+  <si>
+    <t>2023W11</t>
+  </si>
+  <si>
+    <t>2023W12</t>
+  </si>
+  <si>
+    <t>2023W13</t>
+  </si>
+  <si>
+    <t>2023W14</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2022-Dec-09</t>
+  </si>
+  <si>
+    <t>2022-Dec-10</t>
+  </si>
+  <si>
+    <t>2022-Dec-11</t>
+  </si>
+  <si>
+    <t>2022-Dec-12</t>
+  </si>
+  <si>
+    <t>2022-Dec-13</t>
+  </si>
+  <si>
+    <t>2022-Dec-14</t>
+  </si>
+  <si>
+    <t>2022-Dec-15</t>
+  </si>
+  <si>
+    <t>2022-Dec-16</t>
+  </si>
+  <si>
+    <t>2022-Dec-17</t>
+  </si>
+  <si>
+    <t>2022-Dec-18</t>
+  </si>
+  <si>
+    <t>2022-Dec-19</t>
+  </si>
+  <si>
+    <t>2022-Dec-20</t>
+  </si>
+  <si>
+    <t>2022-Dec-21</t>
+  </si>
+  <si>
+    <t>2022-Dec-22</t>
+  </si>
+  <si>
+    <t>2022-Dec-23</t>
   </si>
   <si>
     <t>daily1</t>
@@ -19648,7 +19999,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -19659,24 +20010,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6522</v>
+        <v>6639</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6523</v>
+        <v>6640</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6524</v>
+        <v>6641</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6525</v>
+        <v>6642</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6526</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6507</v>
+        <v>6624</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -19690,7 +20041,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6508</v>
+        <v>6625</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -19704,7 +20055,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6509</v>
+        <v>6626</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19718,7 +20069,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6510</v>
+        <v>6627</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19736,7 +20087,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6511</v>
+        <v>6628</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19754,7 +20105,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6512</v>
+        <v>6629</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19770,7 +20121,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6513</v>
+        <v>6630</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19786,7 +20137,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6514</v>
+        <v>6631</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -19802,7 +20153,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6515</v>
+        <v>6632</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19816,7 +20167,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6516</v>
+        <v>6633</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19830,7 +20181,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6517</v>
+        <v>6634</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -19844,7 +20195,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6518</v>
+        <v>6635</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -19858,7 +20209,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6519</v>
+        <v>6636</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -19872,7 +20223,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6520</v>
+        <v>6637</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -19886,7 +20237,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6521</v>
+        <v>6638</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19916,24 +20267,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6429</v>
+        <v>6546</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6430</v>
+        <v>6547</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6431</v>
+        <v>6548</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6432</v>
+        <v>6549</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6433</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6410</v>
+        <v>6527</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -19945,7 +20296,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6411</v>
+        <v>6528</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -19961,7 +20312,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6412</v>
+        <v>6529</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19975,7 +20326,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6413</v>
+        <v>6530</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19991,7 +20342,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6414</v>
+        <v>6531</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20007,7 +20358,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6415</v>
+        <v>6532</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20021,7 +20372,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6416</v>
+        <v>6533</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20035,7 +20386,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6417</v>
+        <v>6534</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -20049,7 +20400,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6418</v>
+        <v>6535</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20063,7 +20414,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6419</v>
+        <v>6536</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20077,7 +20428,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6420</v>
+        <v>6537</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -20091,7 +20442,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6421</v>
+        <v>6538</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -20105,7 +20456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6422</v>
+        <v>6539</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -20119,7 +20470,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6423</v>
+        <v>6540</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -20133,7 +20484,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6424</v>
+        <v>6541</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -20147,7 +20498,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6425</v>
+        <v>6542</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -20161,7 +20512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6426</v>
+        <v>6543</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -20175,7 +20526,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6427</v>
+        <v>6544</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20187,7 +20538,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6428</v>
+        <v>6545</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20217,24 +20568,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6449</v>
+        <v>6566</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6450</v>
+        <v>6567</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6451</v>
+        <v>6568</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6452</v>
+        <v>6569</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6453</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6434</v>
+        <v>6551</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -20246,7 +20597,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6435</v>
+        <v>6552</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -20260,7 +20611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6436</v>
+        <v>6553</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -20278,7 +20629,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6437</v>
+        <v>6554</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -20296,7 +20647,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6438</v>
+        <v>6555</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -20314,7 +20665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6439</v>
+        <v>6556</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -20332,7 +20683,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6440</v>
+        <v>6557</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -20350,7 +20701,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6441</v>
+        <v>6558</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -20368,7 +20719,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6442</v>
+        <v>6559</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -20386,7 +20737,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6443</v>
+        <v>6560</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -20404,7 +20755,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6444</v>
+        <v>6561</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -20418,7 +20769,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6445</v>
+        <v>6562</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -20432,7 +20783,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6446</v>
+        <v>6563</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -20444,7 +20795,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6447</v>
+        <v>6564</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -20456,7 +20807,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6448</v>
+        <v>6565</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -20486,24 +20837,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6464</v>
+        <v>6581</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6465</v>
+        <v>6582</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6466</v>
+        <v>6583</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6467</v>
+        <v>6584</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6468</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6454</v>
+        <v>6571</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -20515,7 +20866,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6455</v>
+        <v>6572</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -20531,7 +20882,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6456</v>
+        <v>6573</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -20549,7 +20900,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6457</v>
+        <v>6574</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -20567,7 +20918,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6458</v>
+        <v>6575</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -20587,7 +20938,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6459</v>
+        <v>6576</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -20605,7 +20956,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6460</v>
+        <v>6577</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -20623,7 +20974,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6461</v>
+        <v>6578</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -20641,7 +20992,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6462</v>
+        <v>6579</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20655,7 +21006,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6463</v>
+        <v>6580</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20685,24 +21036,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6481</v>
+        <v>6598</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6482</v>
+        <v>6599</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6483</v>
+        <v>6600</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6484</v>
+        <v>6601</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6485</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6469</v>
+        <v>6586</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -20714,7 +21065,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6470</v>
+        <v>6587</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20728,7 +21079,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6471</v>
+        <v>6588</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -20742,7 +21093,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6472</v>
+        <v>6589</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -20758,7 +21109,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6473</v>
+        <v>6590</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -20774,7 +21125,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6474</v>
+        <v>6591</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -20790,7 +21141,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6475</v>
+        <v>6592</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -20804,7 +21155,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6476</v>
+        <v>6593</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -20818,7 +21169,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6477</v>
+        <v>6594</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -20832,7 +21183,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6478</v>
+        <v>6595</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -20846,7 +21197,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6479</v>
+        <v>6596</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -20858,7 +21209,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6480</v>
+        <v>6597</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -20888,24 +21239,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6502</v>
+        <v>6619</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6503</v>
+        <v>6620</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6504</v>
+        <v>6621</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6505</v>
+        <v>6622</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6506</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6486</v>
+        <v>6603</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -20917,7 +21268,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6487</v>
+        <v>6604</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20929,7 +21280,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6488</v>
+        <v>6605</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -20945,7 +21296,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6489</v>
+        <v>6606</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -20963,7 +21314,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6490</v>
+        <v>6607</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -20981,7 +21332,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6491</v>
+        <v>6608</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -20999,7 +21350,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6492</v>
+        <v>6609</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -21015,7 +21366,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6493</v>
+        <v>6610</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -21031,7 +21382,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6494</v>
+        <v>6611</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -21045,7 +21396,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6495</v>
+        <v>6612</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21059,7 +21410,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6496</v>
+        <v>6613</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21073,7 +21424,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6497</v>
+        <v>6614</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21087,7 +21438,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6498</v>
+        <v>6615</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21101,7 +21452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6499</v>
+        <v>6616</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21115,7 +21466,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6500</v>
+        <v>6617</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21127,7 +21478,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6501</v>
+        <v>6618</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>

--- a/databank/toXLSUnitTest.xlsx
+++ b/databank/toXLSUnitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="6644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="6878">
   <si>
     <t>2022-Feb-05</t>
   </si>
@@ -19936,6 +19936,708 @@
   </si>
   <si>
     <t>2022-Dec-23</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>2042Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>2030H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2023M02</t>
+  </si>
+  <si>
+    <t>2023M03</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>2023M12</t>
+  </si>
+  <si>
+    <t>2024M01</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2023W07</t>
+  </si>
+  <si>
+    <t>2023W08</t>
+  </si>
+  <si>
+    <t>2023W09</t>
+  </si>
+  <si>
+    <t>2023W10</t>
+  </si>
+  <si>
+    <t>2023W11</t>
+  </si>
+  <si>
+    <t>2023W12</t>
+  </si>
+  <si>
+    <t>2023W13</t>
+  </si>
+  <si>
+    <t>2023W14</t>
+  </si>
+  <si>
+    <t>2023W15</t>
+  </si>
+  <si>
+    <t>2023W16</t>
+  </si>
+  <si>
+    <t>2023W17</t>
+  </si>
+  <si>
+    <t>2023W18</t>
+  </si>
+  <si>
+    <t>2023W19</t>
+  </si>
+  <si>
+    <t>2023W20</t>
+  </si>
+  <si>
+    <t>2023W21</t>
+  </si>
+  <si>
+    <t>2023W22</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2023-Jan-31</t>
+  </si>
+  <si>
+    <t>2023-Feb-01</t>
+  </si>
+  <si>
+    <t>2023-Feb-02</t>
+  </si>
+  <si>
+    <t>2023-Feb-03</t>
+  </si>
+  <si>
+    <t>2023-Feb-04</t>
+  </si>
+  <si>
+    <t>2023-Feb-05</t>
+  </si>
+  <si>
+    <t>2023-Feb-06</t>
+  </si>
+  <si>
+    <t>2023-Feb-07</t>
+  </si>
+  <si>
+    <t>2023-Feb-08</t>
+  </si>
+  <si>
+    <t>2023-Feb-09</t>
+  </si>
+  <si>
+    <t>2023-Feb-10</t>
+  </si>
+  <si>
+    <t>2023-Feb-11</t>
+  </si>
+  <si>
+    <t>2023-Feb-12</t>
+  </si>
+  <si>
+    <t>2023-Feb-13</t>
+  </si>
+  <si>
+    <t>2023-Feb-14</t>
+  </si>
+  <si>
+    <t>daily1</t>
+  </si>
+  <si>
+    <t>daily2</t>
+  </si>
+  <si>
+    <t>daily3</t>
+  </si>
+  <si>
+    <t>daily4</t>
+  </si>
+  <si>
+    <t>daily5</t>
+  </si>
+  <si>
+    <t>2024Y</t>
+  </si>
+  <si>
+    <t>2025Y</t>
+  </si>
+  <si>
+    <t>2026Y</t>
+  </si>
+  <si>
+    <t>2027Y</t>
+  </si>
+  <si>
+    <t>2028Y</t>
+  </si>
+  <si>
+    <t>2029Y</t>
+  </si>
+  <si>
+    <t>2030Y</t>
+  </si>
+  <si>
+    <t>2031Y</t>
+  </si>
+  <si>
+    <t>2032Y</t>
+  </si>
+  <si>
+    <t>2033Y</t>
+  </si>
+  <si>
+    <t>2034Y</t>
+  </si>
+  <si>
+    <t>2035Y</t>
+  </si>
+  <si>
+    <t>2036Y</t>
+  </si>
+  <si>
+    <t>2037Y</t>
+  </si>
+  <si>
+    <t>2038Y</t>
+  </si>
+  <si>
+    <t>2039Y</t>
+  </si>
+  <si>
+    <t>2040Y</t>
+  </si>
+  <si>
+    <t>2041Y</t>
+  </si>
+  <si>
+    <t>2042Y</t>
+  </si>
+  <si>
+    <t>yearly1</t>
+  </si>
+  <si>
+    <t>yearly2</t>
+  </si>
+  <si>
+    <t>yearly3</t>
+  </si>
+  <si>
+    <t>yearly4</t>
+  </si>
+  <si>
+    <t>yearly5</t>
+  </si>
+  <si>
+    <t>2023H2</t>
+  </si>
+  <si>
+    <t>2024H1</t>
+  </si>
+  <si>
+    <t>2024H2</t>
+  </si>
+  <si>
+    <t>2025H1</t>
+  </si>
+  <si>
+    <t>2025H2</t>
+  </si>
+  <si>
+    <t>2026H1</t>
+  </si>
+  <si>
+    <t>2026H2</t>
+  </si>
+  <si>
+    <t>2027H1</t>
+  </si>
+  <si>
+    <t>2027H2</t>
+  </si>
+  <si>
+    <t>2028H1</t>
+  </si>
+  <si>
+    <t>2028H2</t>
+  </si>
+  <si>
+    <t>2029H1</t>
+  </si>
+  <si>
+    <t>2029H2</t>
+  </si>
+  <si>
+    <t>2030H1</t>
+  </si>
+  <si>
+    <t>2030H2</t>
+  </si>
+  <si>
+    <t>halfyearly1</t>
+  </si>
+  <si>
+    <t>halfyearly2</t>
+  </si>
+  <si>
+    <t>halfyearly3</t>
+  </si>
+  <si>
+    <t>halfyearly4</t>
+  </si>
+  <si>
+    <t>halfyearly5</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>quarterly1</t>
+  </si>
+  <si>
+    <t>quarterly2</t>
+  </si>
+  <si>
+    <t>quarterly3</t>
+  </si>
+  <si>
+    <t>quarterly4</t>
+  </si>
+  <si>
+    <t>quarterly5</t>
+  </si>
+  <si>
+    <t>2023M04</t>
+  </si>
+  <si>
+    <t>2023M05</t>
+  </si>
+  <si>
+    <t>2023M06</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>2023M08</t>
+  </si>
+  <si>
+    <t>2023M09</t>
+  </si>
+  <si>
+    <t>2023M10</t>
+  </si>
+  <si>
+    <t>2023M11</t>
+  </si>
+  <si>
+    <t>2023M12</t>
+  </si>
+  <si>
+    <t>2024M01</t>
+  </si>
+  <si>
+    <t>2024M02</t>
+  </si>
+  <si>
+    <t>2024M03</t>
+  </si>
+  <si>
+    <t>monthly1</t>
+  </si>
+  <si>
+    <t>monthly2</t>
+  </si>
+  <si>
+    <t>monthly3</t>
+  </si>
+  <si>
+    <t>monthly4</t>
+  </si>
+  <si>
+    <t>monthly5</t>
+  </si>
+  <si>
+    <t>2023W15</t>
+  </si>
+  <si>
+    <t>2023W16</t>
+  </si>
+  <si>
+    <t>2023W17</t>
+  </si>
+  <si>
+    <t>2023W18</t>
+  </si>
+  <si>
+    <t>2023W19</t>
+  </si>
+  <si>
+    <t>2023W20</t>
+  </si>
+  <si>
+    <t>2023W21</t>
+  </si>
+  <si>
+    <t>2023W22</t>
+  </si>
+  <si>
+    <t>2023W23</t>
+  </si>
+  <si>
+    <t>2023W24</t>
+  </si>
+  <si>
+    <t>2023W25</t>
+  </si>
+  <si>
+    <t>2023W26</t>
+  </si>
+  <si>
+    <t>2023W27</t>
+  </si>
+  <si>
+    <t>2023W28</t>
+  </si>
+  <si>
+    <t>2023W29</t>
+  </si>
+  <si>
+    <t>2023W30</t>
+  </si>
+  <si>
+    <t>weekly1</t>
+  </si>
+  <si>
+    <t>weekly2</t>
+  </si>
+  <si>
+    <t>weekly3</t>
+  </si>
+  <si>
+    <t>weekly4</t>
+  </si>
+  <si>
+    <t>weekly5</t>
+  </si>
+  <si>
+    <t>2023-Apr-01</t>
+  </si>
+  <si>
+    <t>2023-Apr-02</t>
+  </si>
+  <si>
+    <t>2023-Apr-03</t>
+  </si>
+  <si>
+    <t>2023-Apr-04</t>
+  </si>
+  <si>
+    <t>2023-Apr-05</t>
+  </si>
+  <si>
+    <t>2023-Apr-06</t>
+  </si>
+  <si>
+    <t>2023-Apr-07</t>
+  </si>
+  <si>
+    <t>2023-Apr-08</t>
+  </si>
+  <si>
+    <t>2023-Apr-09</t>
+  </si>
+  <si>
+    <t>2023-Apr-10</t>
+  </si>
+  <si>
+    <t>2023-Apr-11</t>
+  </si>
+  <si>
+    <t>2023-Apr-12</t>
+  </si>
+  <si>
+    <t>2023-Apr-13</t>
+  </si>
+  <si>
+    <t>2023-Apr-14</t>
+  </si>
+  <si>
+    <t>2023-Apr-15</t>
   </si>
   <si>
     <t>daily1</t>
@@ -19999,7 +20701,7 @@
   <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
@@ -20010,24 +20712,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6639</v>
+        <v>6873</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6640</v>
+        <v>6874</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6641</v>
+        <v>6875</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6642</v>
+        <v>6876</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6643</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6624</v>
+        <v>6858</v>
       </c>
       <c r="B2" s="0">
         <v>0.0077822300572673031</v>
@@ -20041,7 +20743,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6625</v>
+        <v>6859</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20055,7 +20757,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6626</v>
+        <v>6860</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -20069,7 +20771,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6627</v>
+        <v>6861</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20087,7 +20789,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6628</v>
+        <v>6862</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20105,7 +20807,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6629</v>
+        <v>6863</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20121,7 +20823,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6630</v>
+        <v>6864</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20137,7 +20839,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6631</v>
+        <v>6865</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -20153,7 +20855,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6632</v>
+        <v>6866</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20167,7 +20869,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6633</v>
+        <v>6867</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20181,7 +20883,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6634</v>
+        <v>6868</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -20195,7 +20897,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6635</v>
+        <v>6869</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -20209,7 +20911,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6636</v>
+        <v>6870</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -20223,7 +20925,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6637</v>
+        <v>6871</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -20237,7 +20939,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6638</v>
+        <v>6872</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20267,24 +20969,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6546</v>
+        <v>6780</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6547</v>
+        <v>6781</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6548</v>
+        <v>6782</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6549</v>
+        <v>6783</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6550</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6527</v>
+        <v>6761</v>
       </c>
       <c r="B2" s="0">
         <v>0.44573095817754427</v>
@@ -20296,7 +20998,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6528</v>
+        <v>6762</v>
       </c>
       <c r="B3" s="0">
         <v>0.93884503662500751</v>
@@ -20312,7 +21014,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6529</v>
+        <v>6763</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -20326,7 +21028,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6530</v>
+        <v>6764</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20342,7 +21044,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6531</v>
+        <v>6765</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20358,7 +21060,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6532</v>
+        <v>6766</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20372,7 +21074,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6533</v>
+        <v>6767</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20386,7 +21088,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6534</v>
+        <v>6768</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -20400,7 +21102,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6535</v>
+        <v>6769</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20414,7 +21116,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6536</v>
+        <v>6770</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20428,7 +21130,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6537</v>
+        <v>6771</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -20442,7 +21144,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6538</v>
+        <v>6772</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -20456,7 +21158,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6539</v>
+        <v>6773</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -20470,7 +21172,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6540</v>
+        <v>6774</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -20484,7 +21186,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6541</v>
+        <v>6775</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -20498,7 +21200,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6542</v>
+        <v>6776</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -20512,7 +21214,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6543</v>
+        <v>6777</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -20526,7 +21228,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6544</v>
+        <v>6778</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20538,7 +21240,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6545</v>
+        <v>6779</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20568,24 +21270,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6566</v>
+        <v>6800</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6567</v>
+        <v>6801</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6568</v>
+        <v>6802</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6569</v>
+        <v>6803</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6570</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6551</v>
+        <v>6785</v>
       </c>
       <c r="B2" s="0">
         <v>0.95912755887763146</v>
@@ -20597,7 +21299,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6552</v>
+        <v>6786</v>
       </c>
       <c r="B3" s="0">
         <v>0.15599623700921006</v>
@@ -20611,7 +21313,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6553</v>
+        <v>6787</v>
       </c>
       <c r="B4" s="0">
         <v>0.92893566527503146</v>
@@ -20629,7 +21331,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6554</v>
+        <v>6788</v>
       </c>
       <c r="B5" s="0">
         <v>0.42457418676747516</v>
@@ -20647,7 +21349,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6555</v>
+        <v>6789</v>
       </c>
       <c r="B6" s="0">
         <v>0.22308394507279783</v>
@@ -20665,7 +21367,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6556</v>
+        <v>6790</v>
       </c>
       <c r="B7" s="0">
         <v>0.13639509258625593</v>
@@ -20683,7 +21385,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6557</v>
+        <v>6791</v>
       </c>
       <c r="B8" s="0">
         <v>0.26017565411199783</v>
@@ -20701,7 +21403,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6558</v>
+        <v>6792</v>
       </c>
       <c r="B9" s="0">
         <v>0.54446538298976221</v>
@@ -20719,7 +21421,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6559</v>
+        <v>6793</v>
       </c>
       <c r="B10" s="0">
         <v>0.08220839201942487</v>
@@ -20737,7 +21439,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6560</v>
+        <v>6794</v>
       </c>
       <c r="B11" s="0">
         <v>0.59812731332654612</v>
@@ -20755,7 +21457,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6561</v>
+        <v>6795</v>
       </c>
       <c r="B12" s="0">
         <v>0.029186178399368323</v>
@@ -20769,7 +21471,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6562</v>
+        <v>6796</v>
       </c>
       <c r="B13" s="0">
         <v>0.45490889768790432</v>
@@ -20783,7 +21485,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6563</v>
+        <v>6797</v>
       </c>
       <c r="B14" s="0">
         <v>0.33249868418860995</v>
@@ -20795,7 +21497,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6564</v>
+        <v>6798</v>
       </c>
       <c r="B15" s="0">
         <v>0.9436728315558397</v>
@@ -20807,7 +21509,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6565</v>
+        <v>6799</v>
       </c>
       <c r="B16" s="0">
         <v>0.30310182000969277</v>
@@ -20837,24 +21539,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6581</v>
+        <v>6815</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6582</v>
+        <v>6816</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6583</v>
+        <v>6817</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6584</v>
+        <v>6818</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6585</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6571</v>
+        <v>6805</v>
       </c>
       <c r="B2" s="0">
         <v>0.36131340195220318</v>
@@ -20866,7 +21568,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6572</v>
+        <v>6806</v>
       </c>
       <c r="B3" s="0">
         <v>0.47000049054799409</v>
@@ -20882,7 +21584,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6573</v>
+        <v>6807</v>
       </c>
       <c r="B4" s="0">
         <v>0.058779768820967915</v>
@@ -20900,7 +21602,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6574</v>
+        <v>6808</v>
       </c>
       <c r="B5" s="0">
         <v>0.33001170117311762</v>
@@ -20918,7 +21620,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6575</v>
+        <v>6809</v>
       </c>
       <c r="B6" s="0">
         <v>0.2645204776577964</v>
@@ -20938,7 +21640,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6576</v>
+        <v>6810</v>
       </c>
       <c r="B7" s="0">
         <v>0.24591766636495149</v>
@@ -20956,7 +21658,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6577</v>
+        <v>6811</v>
       </c>
       <c r="B8" s="0">
         <v>0.94767635939633654</v>
@@ -20974,7 +21676,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6578</v>
+        <v>6812</v>
       </c>
       <c r="B9" s="0">
         <v>0.032441994505736038</v>
@@ -20992,7 +21694,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6579</v>
+        <v>6813</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -21006,7 +21708,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6580</v>
+        <v>6814</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -21036,24 +21738,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6598</v>
+        <v>6832</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6599</v>
+        <v>6833</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6600</v>
+        <v>6834</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6601</v>
+        <v>6835</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6602</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6586</v>
+        <v>6820</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -21065,7 +21767,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6587</v>
+        <v>6821</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -21079,7 +21781,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6588</v>
+        <v>6822</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -21093,7 +21795,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6589</v>
+        <v>6823</v>
       </c>
       <c r="B5" s="0">
         <v>0.25842844529664455</v>
@@ -21109,7 +21811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6590</v>
+        <v>6824</v>
       </c>
       <c r="B6" s="0">
         <v>0.41674615988017316</v>
@@ -21125,7 +21827,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6591</v>
+        <v>6825</v>
       </c>
       <c r="B7" s="0">
         <v>0.38205553895575395</v>
@@ -21141,7 +21843,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6592</v>
+        <v>6826</v>
       </c>
       <c r="B8" s="0">
         <v>0.096334132994130295</v>
@@ -21155,7 +21857,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6593</v>
+        <v>6827</v>
       </c>
       <c r="B9" s="0">
         <v>0.13128421939369728</v>
@@ -21169,7 +21871,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6594</v>
+        <v>6828</v>
       </c>
       <c r="B10" s="0">
         <v>0.60989827041754752</v>
@@ -21183,7 +21885,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6595</v>
+        <v>6829</v>
       </c>
       <c r="B11" s="0">
         <v>0.65619373187934471</v>
@@ -21197,7 +21899,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6596</v>
+        <v>6830</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0">
@@ -21209,7 +21911,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6597</v>
+        <v>6831</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0">
@@ -21239,24 +21941,24 @@
     <row r="1">
       <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
-        <v>6619</v>
+        <v>6853</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6620</v>
+        <v>6854</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6621</v>
+        <v>6855</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6622</v>
+        <v>6856</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6623</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6603</v>
+        <v>6837</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -21268,7 +21970,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6604</v>
+        <v>6838</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -21280,7 +21982,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6605</v>
+        <v>6839</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -21296,7 +21998,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6606</v>
+        <v>6840</v>
       </c>
       <c r="B5" s="0">
         <v>0.097101989426797264</v>
@@ -21314,7 +22016,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6607</v>
+        <v>6841</v>
       </c>
       <c r="B6" s="0">
         <v>0.78282152667052363</v>
@@ -21332,7 +22034,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6608</v>
+        <v>6842</v>
       </c>
       <c r="B7" s="0">
         <v>0.66752094460457012</v>
@@ -21350,7 +22052,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6609</v>
+        <v>6843</v>
       </c>
       <c r="B8" s="0">
         <v>0.61267254852844133</v>
@@ -21366,7 +22068,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6610</v>
+        <v>6844</v>
       </c>
       <c r="B9" s="0">
         <v>0.34379242128970755</v>
@@ -21382,7 +22084,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6611</v>
+        <v>6845</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -21396,7 +22098,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6612</v>
+        <v>6846</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21410,7 +22112,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6613</v>
+        <v>6847</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21424,7 +22126,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6614</v>
+        <v>6848</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21438,7 +22140,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6615</v>
+        <v>6849</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21452,7 +22154,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6616</v>
+        <v>6850</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21466,7 +22168,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6617</v>
+        <v>6851</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21478,7 +22180,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6618</v>
+        <v>6852</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
